--- a/Tasks/03_DB設計/ACSYSTEM_DB設計.xlsx
+++ b/Tasks/03_DB設計/ACSYSTEM_DB設計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ACSystem\Tasks\03_DB設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5959BFB7-18B8-4535-9155-ED9284B18129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1E42BE-8CCD-4C7F-94F5-671A88129108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="270" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧表" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="159">
   <si>
     <t>Attendance Check System - ACSYSTEM</t>
   </si>
@@ -709,6 +709,36 @@
   </si>
   <si>
     <t xml:space="preserve">	2023-12-05 10:06:35</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>申請判断</t>
+    <rPh sb="0" eb="2">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンダン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>is_request</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>false</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -1380,39 +1410,36 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1428,10 +1455,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1482,13 +1512,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="3" applyBorder="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1496,18 +1538,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1843,7 +1873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
@@ -1856,21 +1886,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="25.5" thickBot="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
     </row>
     <row r="2" spans="1:13" ht="19.5" thickTop="1"/>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -1882,90 +1912,84 @@
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59" t="s">
+      <c r="E4" s="54"/>
+      <c r="F4" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59" t="s">
+      <c r="G4" s="54"/>
+      <c r="H4" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="60"/>
+      <c r="I4" s="55"/>
     </row>
     <row r="5" spans="1:13" ht="19.5">
       <c r="C5" s="33">
         <v>1</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="57"/>
-      <c r="F5" s="53" t="s">
+      <c r="E5" s="56"/>
+      <c r="F5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="53"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="55"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63"/>
     </row>
     <row r="6" spans="1:13" ht="19.5">
       <c r="C6" s="33">
         <v>2</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="53" t="s">
+      <c r="E6" s="56"/>
+      <c r="F6" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="53"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="55"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="63"/>
     </row>
     <row r="7" spans="1:13" ht="19.5">
       <c r="C7" s="33">
         <v>3</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="53" t="s">
+      <c r="E7" s="56"/>
+      <c r="F7" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="55"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="63"/>
     </row>
     <row r="8" spans="1:13" ht="20.25" thickBot="1">
       <c r="C8" s="34">
         <v>4</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="49"/>
-      <c r="F8" s="50" t="s">
+      <c r="E8" s="58"/>
+      <c r="F8" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="G8" s="50"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="52"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="61"/>
     </row>
     <row r="14" spans="1:13">
       <c r="H14" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="H8:I8"/>
@@ -1976,6 +2000,12 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <hyperlinks>
@@ -1994,8 +2024,8 @@
   </sheetPr>
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:I21"/>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2012,21 +2042,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="25.5" thickBot="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
     </row>
     <row r="2" spans="1:13" ht="17.25" thickTop="1" thickBot="1"/>
     <row r="3" spans="1:13" ht="18.75">
@@ -2104,14 +2134,14 @@
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:13" ht="18.75">
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="91"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="72"/>
     </row>
     <row r="9" spans="1:13">
       <c r="B9" s="82" t="s">
@@ -2453,10 +2483,10 @@
         <v>47</v>
       </c>
       <c r="E29" s="41"/>
-      <c r="F29" s="71" t="s">
+      <c r="F29" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="G29" s="72"/>
+      <c r="G29" s="90"/>
       <c r="H29" s="31" t="s">
         <v>50</v>
       </c>
@@ -2501,10 +2531,10 @@
         <v>47</v>
       </c>
       <c r="E33" s="41"/>
-      <c r="F33" s="71" t="s">
+      <c r="F33" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="G33" s="72"/>
+      <c r="G33" s="90"/>
       <c r="H33" s="31" t="s">
         <v>106</v>
       </c>
@@ -2557,91 +2587,91 @@
       <c r="B38" s="46">
         <v>1</v>
       </c>
-      <c r="C38" s="66" t="s">
+      <c r="C38" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="67"/>
-      <c r="E38" s="68" t="s">
+      <c r="D38" s="66"/>
+      <c r="E38" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="F38" s="69"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="70"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="69"/>
     </row>
     <row r="39" spans="2:11" ht="18.75">
       <c r="B39" s="46">
         <v>2</v>
       </c>
-      <c r="C39" s="66" t="s">
+      <c r="C39" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="67"/>
-      <c r="E39" s="68" t="str">
+      <c r="D39" s="66"/>
+      <c r="E39" s="67" t="str">
         <f>C15</f>
         <v>ユニーク番号</v>
       </c>
-      <c r="F39" s="69"/>
-      <c r="G39" s="69"/>
-      <c r="H39" s="70"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="69"/>
     </row>
     <row r="40" spans="2:11" ht="18.75">
       <c r="B40" s="46">
         <v>3</v>
       </c>
-      <c r="C40" s="66" t="s">
+      <c r="C40" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="67"/>
-      <c r="E40" s="68" t="str">
+      <c r="D40" s="66"/>
+      <c r="E40" s="67" t="str">
         <f>C17</f>
         <v>クラス情報</v>
       </c>
-      <c r="F40" s="69"/>
-      <c r="G40" s="69"/>
-      <c r="H40" s="70"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="69"/>
     </row>
     <row r="41" spans="2:11" ht="18.75">
       <c r="B41" s="46">
         <v>4</v>
       </c>
-      <c r="C41" s="66" t="s">
+      <c r="C41" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="67"/>
-      <c r="E41" s="68" t="s">
+      <c r="D41" s="66"/>
+      <c r="E41" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="F41" s="69"/>
-      <c r="G41" s="69"/>
-      <c r="H41" s="70"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="69"/>
     </row>
     <row r="42" spans="2:11" ht="18.75">
       <c r="B42" s="46">
         <v>5</v>
       </c>
-      <c r="C42" s="66" t="s">
+      <c r="C42" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="67"/>
-      <c r="E42" s="68" t="s">
+      <c r="D42" s="66"/>
+      <c r="E42" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="F42" s="69"/>
-      <c r="G42" s="69"/>
-      <c r="H42" s="70"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="69"/>
     </row>
     <row r="43" spans="2:11" ht="18.75">
       <c r="B43" s="46">
         <v>6</v>
       </c>
-      <c r="C43" s="66" t="s">
+      <c r="C43" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="D43" s="67"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="69"/>
-      <c r="H43" s="70"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="69"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
     </row>
@@ -2649,118 +2679,118 @@
       <c r="B44" s="46">
         <v>7</v>
       </c>
-      <c r="C44" s="66" t="s">
+      <c r="C44" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="67"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="69"/>
-      <c r="H44" s="70"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="69"/>
     </row>
     <row r="45" spans="2:11" ht="18.75">
       <c r="B45" s="46">
         <v>8</v>
       </c>
-      <c r="C45" s="66" t="s">
+      <c r="C45" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="D45" s="67"/>
-      <c r="E45" s="68"/>
-      <c r="F45" s="69"/>
-      <c r="G45" s="69"/>
-      <c r="H45" s="70"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="69"/>
     </row>
     <row r="46" spans="2:11" ht="18.75">
       <c r="B46" s="46">
         <v>9</v>
       </c>
-      <c r="C46" s="66" t="s">
+      <c r="C46" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="D46" s="67"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="69"/>
-      <c r="H46" s="70"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="69"/>
     </row>
     <row r="47" spans="2:11" ht="18.75">
       <c r="B47" s="46">
         <v>10</v>
       </c>
-      <c r="C47" s="66" t="s">
+      <c r="C47" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="D47" s="67"/>
-      <c r="E47" s="68" t="s">
+      <c r="D47" s="66"/>
+      <c r="E47" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="F47" s="69"/>
-      <c r="G47" s="69"/>
-      <c r="H47" s="70"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="69"/>
     </row>
     <row r="48" spans="2:11" ht="18.75">
       <c r="B48" s="46">
         <v>11</v>
       </c>
-      <c r="C48" s="66" t="s">
+      <c r="C48" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="D48" s="67"/>
-      <c r="E48" s="68"/>
-      <c r="F48" s="69"/>
-      <c r="G48" s="69"/>
-      <c r="H48" s="70"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="68"/>
+      <c r="H48" s="69"/>
     </row>
     <row r="49" spans="2:8" ht="18.75">
       <c r="B49" s="46">
         <v>12</v>
       </c>
-      <c r="C49" s="66" t="s">
+      <c r="C49" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="67"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="69"/>
-      <c r="G49" s="69"/>
-      <c r="H49" s="70"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="69"/>
     </row>
     <row r="50" spans="2:8" ht="18.75">
       <c r="B50" s="46">
         <v>13</v>
       </c>
-      <c r="C50" s="66" t="s">
+      <c r="C50" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="D50" s="67"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="69"/>
-      <c r="G50" s="69"/>
-      <c r="H50" s="70"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="69"/>
     </row>
     <row r="51" spans="2:8" ht="18.75">
       <c r="B51" s="46">
         <v>14</v>
       </c>
-      <c r="C51" s="66" t="s">
+      <c r="C51" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="67"/>
-      <c r="E51" s="68" t="s">
+      <c r="D51" s="66"/>
+      <c r="E51" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="F51" s="69"/>
-      <c r="G51" s="69"/>
-      <c r="H51" s="70"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="69"/>
     </row>
     <row r="52" spans="2:8" ht="18.75">
       <c r="B52" s="46">
         <v>15</v>
       </c>
-      <c r="C52" s="66" t="s">
+      <c r="C52" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="D52" s="67"/>
+      <c r="D52" s="66"/>
       <c r="E52" s="73" t="s">
         <v>116</v>
       </c>
@@ -2772,91 +2802,91 @@
       <c r="B53" s="46">
         <v>16</v>
       </c>
-      <c r="C53" s="66" t="s">
+      <c r="C53" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="D53" s="67"/>
-      <c r="E53" s="68" t="s">
+      <c r="D53" s="66"/>
+      <c r="E53" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="F53" s="69"/>
-      <c r="G53" s="69"/>
-      <c r="H53" s="70"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="68"/>
+      <c r="H53" s="69"/>
     </row>
     <row r="54" spans="2:8" ht="18.75">
       <c r="B54" s="46">
         <v>17</v>
       </c>
-      <c r="C54" s="66" t="s">
+      <c r="C54" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="D54" s="67"/>
-      <c r="E54" s="68" t="s">
+      <c r="D54" s="66"/>
+      <c r="E54" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="F54" s="69"/>
-      <c r="G54" s="69"/>
-      <c r="H54" s="70"/>
+      <c r="F54" s="68"/>
+      <c r="G54" s="68"/>
+      <c r="H54" s="69"/>
     </row>
     <row r="55" spans="2:8" ht="18.75">
       <c r="B55" s="46">
         <v>18</v>
       </c>
-      <c r="C55" s="66" t="s">
+      <c r="C55" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D55" s="67"/>
-      <c r="E55" s="68" t="s">
+      <c r="D55" s="66"/>
+      <c r="E55" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="F55" s="69"/>
-      <c r="G55" s="69"/>
-      <c r="H55" s="70"/>
+      <c r="F55" s="68"/>
+      <c r="G55" s="68"/>
+      <c r="H55" s="69"/>
     </row>
     <row r="56" spans="2:8" ht="18.75">
       <c r="B56" s="46">
         <v>19</v>
       </c>
-      <c r="C56" s="66" t="s">
+      <c r="C56" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="D56" s="67"/>
-      <c r="E56" s="68" t="s">
+      <c r="D56" s="66"/>
+      <c r="E56" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="F56" s="69"/>
-      <c r="G56" s="69"/>
-      <c r="H56" s="70"/>
+      <c r="F56" s="68"/>
+      <c r="G56" s="68"/>
+      <c r="H56" s="69"/>
     </row>
     <row r="57" spans="2:8" ht="18.75">
       <c r="B57" s="46">
         <v>20</v>
       </c>
-      <c r="C57" s="66" t="s">
+      <c r="C57" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="D57" s="67"/>
-      <c r="E57" s="68" t="s">
+      <c r="D57" s="66"/>
+      <c r="E57" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="F57" s="69"/>
-      <c r="G57" s="69"/>
-      <c r="H57" s="70"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="68"/>
+      <c r="H57" s="69"/>
     </row>
     <row r="58" spans="2:8" ht="19.5" thickBot="1">
       <c r="B58" s="39">
         <v>21</v>
       </c>
-      <c r="C58" s="61" t="s">
+      <c r="C58" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="D58" s="62"/>
-      <c r="E58" s="63" t="s">
+      <c r="D58" s="92"/>
+      <c r="E58" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="F58" s="64"/>
-      <c r="G58" s="64"/>
-      <c r="H58" s="65"/>
+      <c r="F58" s="94"/>
+      <c r="G58" s="94"/>
+      <c r="H58" s="95"/>
     </row>
     <row r="67" spans="10:11">
       <c r="J67" s="4"/>
@@ -2864,25 +2894,26 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:H44"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="E55:H55"/>
     <mergeCell ref="A1:M1"/>
@@ -2899,28 +2930,27 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:H39"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="F33:G33"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:H58"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:H50"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2937,10 +2967,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2957,21 +2987,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="25.5" thickBot="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
     </row>
     <row r="2" spans="1:13" ht="17.25" thickTop="1" thickBot="1"/>
     <row r="3" spans="1:13" ht="18.75">
@@ -3015,10 +3045,10 @@
       <c r="E5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="92">
+      <c r="F5" s="96">
         <v>45265</v>
       </c>
-      <c r="G5" s="93"/>
+      <c r="G5" s="97"/>
     </row>
     <row r="6" spans="1:13" ht="18.75">
       <c r="B6" s="19" t="s">
@@ -3048,14 +3078,14 @@
       <c r="G7" s="81"/>
     </row>
     <row r="8" spans="1:13" ht="18.75">
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="91"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="72"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="B9" s="82" t="s">
@@ -3145,11 +3175,11 @@
       <c r="B16" s="11">
         <v>2</v>
       </c>
-      <c r="C16" s="94" t="s">
+      <c r="C16" s="50" t="s">
         <v>117</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="E16" s="14" t="s">
         <v>77</v>
@@ -3167,217 +3197,228 @@
       <c r="B17" s="15">
         <v>3</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>118</v>
+      <c r="C17" s="50" t="s">
+        <v>155</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>81</v>
+        <v>156</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>114</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="12"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="11">
+      <c r="B18" s="15">
         <v>4</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="2:9" ht="16.5" thickBot="1">
-      <c r="B19" s="26">
+    <row r="19" spans="2:9">
+      <c r="B19" s="11">
         <v>5</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="2:9" ht="16.5" thickBot="1">
+      <c r="B20" s="26">
+        <v>6</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="22" t="s">
+      <c r="D20" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E20" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F20" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="95"/>
-    </row>
-    <row r="20" spans="2:9" ht="18.75">
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-    </row>
-    <row r="21" spans="2:9" ht="19.5" thickBot="1">
-      <c r="B21" s="27" t="s">
+      <c r="H20" s="7"/>
+      <c r="I20" s="51"/>
+    </row>
+    <row r="21" spans="2:9" ht="18.75">
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+    </row>
+    <row r="22" spans="2:9" ht="19.5" thickBot="1">
+      <c r="B22" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21"/>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="29" t="s">
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C23" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D23" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="E22" s="41" t="s">
+      <c r="E23" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F23" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="G22" s="30" t="s">
+      <c r="G23" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="H22" s="31" t="s">
+      <c r="H23" s="31" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="18.75">
-      <c r="B23" s="47">
+    <row r="24" spans="2:9" ht="18.75">
+      <c r="B24" s="47">
         <v>1</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C24" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D24" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="E24" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="F23" s="36" t="s">
+      <c r="F24" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="G23" s="36" t="s">
+      <c r="G24" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="H23" s="48"/>
-    </row>
-    <row r="24" spans="2:9" ht="19.5" thickBot="1">
-      <c r="B24" s="42">
+      <c r="H24" s="48"/>
+    </row>
+    <row r="25" spans="2:9" ht="19.5" thickBot="1">
+      <c r="B25" s="42">
         <v>2</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C25" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="D24" s="43" t="s">
+      <c r="D25" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="E24" s="44" t="s">
+      <c r="E25" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="43" t="s">
+      <c r="F25" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="G24" s="43" t="s">
+      <c r="G25" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="H24" s="45"/>
-      <c r="I24"/>
-    </row>
-    <row r="25" spans="2:9" ht="18.75">
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-    </row>
-    <row r="26" spans="2:9" ht="16.5" thickBot="1">
-      <c r="B26" s="27" t="s">
+      <c r="H25" s="45"/>
+      <c r="I25"/>
+    </row>
+    <row r="26" spans="2:9" ht="18.75">
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+    </row>
+    <row r="27" spans="2:9" ht="16.5" thickBot="1">
+      <c r="B27" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-    </row>
-    <row r="27" spans="2:9" ht="19.5" customHeight="1">
-      <c r="B27" s="29" t="s">
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+    </row>
+    <row r="28" spans="2:9" ht="19.5" customHeight="1">
+      <c r="B28" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C28" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D28" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="41"/>
-      <c r="F27" s="71" t="s">
+      <c r="E28" s="41"/>
+      <c r="F28" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="G27" s="72"/>
-      <c r="H27" s="31" t="s">
+      <c r="G28" s="90"/>
+      <c r="H28" s="31" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="19.5" thickBot="1">
-      <c r="B28" s="2"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="25"/>
-    </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="40"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-    </row>
-    <row r="30" spans="2:9" ht="16.5" thickBot="1">
-      <c r="B30" s="27" t="s">
-        <v>49</v>
-      </c>
+    <row r="29" spans="2:9" ht="19.5" thickBot="1">
+      <c r="B29" s="2"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="25"/>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="40"/>
       <c r="C30" s="28"/>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
@@ -3385,47 +3426,47 @@
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
     </row>
-    <row r="31" spans="2:9" ht="18.75">
-      <c r="B31" s="29" t="s">
+    <row r="31" spans="2:9" ht="16.5" thickBot="1">
+      <c r="B31" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+    </row>
+    <row r="32" spans="2:9" ht="18.75">
+      <c r="B32" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C32" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D32" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="41"/>
-      <c r="F31" s="71" t="s">
+      <c r="E32" s="41"/>
+      <c r="F32" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="G31" s="72"/>
-      <c r="H31" s="31" t="s">
+      <c r="G32" s="90"/>
+      <c r="H32" s="31" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="19.5" thickBot="1">
-      <c r="B32" s="2"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="25"/>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="40"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-    </row>
-    <row r="34" spans="2:8" ht="16.5" thickBot="1">
-      <c r="B34" s="27" t="s">
-        <v>46</v>
-      </c>
+    <row r="33" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B33" s="2"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="25"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="40"/>
       <c r="C34" s="28"/>
       <c r="D34" s="28"/>
       <c r="E34" s="28"/>
@@ -3433,375 +3474,344 @@
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
     </row>
-    <row r="35" spans="2:8">
-      <c r="B35" s="29" t="s">
+    <row r="35" spans="2:8" ht="16.5" thickBot="1">
+      <c r="B35" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C36" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="41"/>
-      <c r="E35" s="30" t="s">
+      <c r="D36" s="41"/>
+      <c r="E36" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="38"/>
-    </row>
-    <row r="36" spans="2:8" ht="18.75">
-      <c r="B36" s="46">
-        <v>1</v>
-      </c>
-      <c r="C36" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="D36" s="67"/>
-      <c r="E36" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="F36" s="69"/>
-      <c r="G36" s="69"/>
-      <c r="H36" s="70"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="38"/>
     </row>
     <row r="37" spans="2:8" ht="18.75">
       <c r="B37" s="46">
+        <v>1</v>
+      </c>
+      <c r="C37" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="66"/>
+      <c r="E37" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="69"/>
+    </row>
+    <row r="38" spans="2:8" ht="18.75">
+      <c r="B38" s="46">
         <v>2</v>
       </c>
-      <c r="C37" s="66" t="s">
+      <c r="C38" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="67"/>
-      <c r="E37" s="68" t="str">
+      <c r="D38" s="66"/>
+      <c r="E38" s="67" t="str">
         <f>C5</f>
         <v>ACSystem</v>
       </c>
-      <c r="F37" s="69"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="70"/>
-    </row>
-    <row r="38" spans="2:8" ht="18.75">
-      <c r="B38" s="46">
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="69"/>
+    </row>
+    <row r="39" spans="2:8" ht="18.75">
+      <c r="B39" s="46">
         <v>3</v>
       </c>
-      <c r="C38" s="66" t="s">
+      <c r="C39" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="67"/>
-      <c r="E38" s="68" t="str">
+      <c r="D39" s="66"/>
+      <c r="E39" s="67" t="str">
         <f>C7</f>
         <v>attendance</v>
       </c>
-      <c r="F38" s="69"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="70"/>
-    </row>
-    <row r="39" spans="2:8" ht="18.75">
-      <c r="B39" s="46">
-        <v>4</v>
-      </c>
-      <c r="C39" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" s="67"/>
-      <c r="E39" s="68" t="s">
-        <v>108</v>
-      </c>
-      <c r="F39" s="69"/>
-      <c r="G39" s="69"/>
-      <c r="H39" s="70"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="69"/>
     </row>
     <row r="40" spans="2:8" ht="18.75">
       <c r="B40" s="46">
-        <v>5</v>
-      </c>
-      <c r="C40" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" s="67"/>
-      <c r="E40" s="68" t="s">
-        <v>109</v>
-      </c>
-      <c r="F40" s="69"/>
-      <c r="G40" s="69"/>
-      <c r="H40" s="70"/>
+        <v>4</v>
+      </c>
+      <c r="C40" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="66"/>
+      <c r="E40" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="69"/>
     </row>
     <row r="41" spans="2:8" ht="18.75">
       <c r="B41" s="46">
-        <v>6</v>
-      </c>
-      <c r="C41" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="D41" s="67"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="69"/>
-      <c r="G41" s="69"/>
-      <c r="H41" s="70"/>
+        <v>5</v>
+      </c>
+      <c r="C41" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="66"/>
+      <c r="E41" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="69"/>
     </row>
     <row r="42" spans="2:8" ht="18.75">
       <c r="B42" s="46">
-        <v>7</v>
-      </c>
-      <c r="C42" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42" s="67"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="69"/>
-      <c r="H42" s="70"/>
+        <v>6</v>
+      </c>
+      <c r="C42" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="66"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="69"/>
     </row>
     <row r="43" spans="2:8" ht="18.75">
       <c r="B43" s="46">
-        <v>8</v>
-      </c>
-      <c r="C43" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="D43" s="67"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="69"/>
-      <c r="H43" s="70"/>
+        <v>7</v>
+      </c>
+      <c r="C43" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="66"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="69"/>
     </row>
     <row r="44" spans="2:8" ht="18.75">
       <c r="B44" s="46">
-        <v>9</v>
-      </c>
-      <c r="C44" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="D44" s="67"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="69"/>
-      <c r="H44" s="70"/>
+        <v>8</v>
+      </c>
+      <c r="C44" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="66"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="69"/>
     </row>
     <row r="45" spans="2:8" ht="18.75">
       <c r="B45" s="46">
-        <v>10</v>
-      </c>
-      <c r="C45" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="D45" s="67"/>
-      <c r="E45" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="F45" s="69"/>
-      <c r="G45" s="69"/>
-      <c r="H45" s="70"/>
+        <v>9</v>
+      </c>
+      <c r="C45" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="66"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="69"/>
     </row>
     <row r="46" spans="2:8" ht="18.75">
       <c r="B46" s="46">
-        <v>11</v>
-      </c>
-      <c r="C46" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="D46" s="67"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="69"/>
-      <c r="H46" s="70"/>
+        <v>10</v>
+      </c>
+      <c r="C46" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="66"/>
+      <c r="E46" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="F46" s="68"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="69"/>
     </row>
     <row r="47" spans="2:8" ht="18.75">
       <c r="B47" s="46">
-        <v>12</v>
-      </c>
-      <c r="C47" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="D47" s="67"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="69"/>
-      <c r="G47" s="69"/>
-      <c r="H47" s="70"/>
+        <v>11</v>
+      </c>
+      <c r="C47" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" s="66"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="69"/>
     </row>
     <row r="48" spans="2:8" ht="18.75">
       <c r="B48" s="46">
+        <v>12</v>
+      </c>
+      <c r="C48" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="66"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="68"/>
+      <c r="H48" s="69"/>
+    </row>
+    <row r="49" spans="2:8" ht="18.75">
+      <c r="B49" s="46">
         <v>13</v>
       </c>
-      <c r="C48" s="66" t="s">
+      <c r="C49" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="D48" s="67"/>
-      <c r="E48" s="68"/>
-      <c r="F48" s="69"/>
-      <c r="G48" s="69"/>
-      <c r="H48" s="70"/>
-    </row>
-    <row r="49" spans="2:11" ht="18.75">
-      <c r="B49" s="46">
+      <c r="D49" s="66"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="69"/>
+    </row>
+    <row r="50" spans="2:8" ht="18.75">
+      <c r="B50" s="46">
         <v>14</v>
       </c>
-      <c r="C49" s="66" t="s">
+      <c r="C50" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="67"/>
-      <c r="E49" s="68" t="s">
+      <c r="D50" s="66"/>
+      <c r="E50" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="F49" s="69"/>
-      <c r="G49" s="69"/>
-      <c r="H49" s="70"/>
-    </row>
-    <row r="50" spans="2:11" ht="18.75">
-      <c r="B50" s="46">
+      <c r="F50" s="68"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="69"/>
+    </row>
+    <row r="51" spans="2:8" ht="18.75">
+      <c r="B51" s="46">
         <v>15</v>
       </c>
-      <c r="C50" s="66" t="s">
+      <c r="C51" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="67"/>
-      <c r="E50" s="73" t="s">
+      <c r="D51" s="66"/>
+      <c r="E51" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="F50" s="74"/>
-      <c r="G50" s="74"/>
-      <c r="H50" s="75"/>
-    </row>
-    <row r="51" spans="2:11" ht="18.75">
-      <c r="B51" s="46">
+      <c r="F51" s="74"/>
+      <c r="G51" s="74"/>
+      <c r="H51" s="75"/>
+    </row>
+    <row r="52" spans="2:8" ht="18.75">
+      <c r="B52" s="46">
         <v>16</v>
       </c>
-      <c r="C51" s="66" t="s">
+      <c r="C52" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="D51" s="67"/>
-      <c r="E51" s="68" t="s">
+      <c r="D52" s="66"/>
+      <c r="E52" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="F51" s="69"/>
-      <c r="G51" s="69"/>
-      <c r="H51" s="70"/>
-    </row>
-    <row r="52" spans="2:11" ht="18.75">
-      <c r="B52" s="46">
+      <c r="F52" s="68"/>
+      <c r="G52" s="68"/>
+      <c r="H52" s="69"/>
+    </row>
+    <row r="53" spans="2:8" ht="18.75">
+      <c r="B53" s="46">
         <v>17</v>
       </c>
-      <c r="C52" s="66" t="s">
+      <c r="C53" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="D52" s="67"/>
-      <c r="E52" s="68" t="s">
+      <c r="D53" s="66"/>
+      <c r="E53" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="F52" s="69"/>
-      <c r="G52" s="69"/>
-      <c r="H52" s="70"/>
-    </row>
-    <row r="53" spans="2:11" ht="18.75">
-      <c r="B53" s="46">
+      <c r="F53" s="68"/>
+      <c r="G53" s="68"/>
+      <c r="H53" s="69"/>
+    </row>
+    <row r="54" spans="2:8" ht="18.75">
+      <c r="B54" s="46">
         <v>18</v>
       </c>
-      <c r="C53" s="66" t="s">
+      <c r="C54" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D53" s="67"/>
-      <c r="E53" s="68" t="s">
+      <c r="D54" s="66"/>
+      <c r="E54" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="F53" s="69"/>
-      <c r="G53" s="69"/>
-      <c r="H53" s="70"/>
-    </row>
-    <row r="54" spans="2:11" ht="18.75">
-      <c r="B54" s="46">
+      <c r="F54" s="68"/>
+      <c r="G54" s="68"/>
+      <c r="H54" s="69"/>
+    </row>
+    <row r="55" spans="2:8" ht="18.75">
+      <c r="B55" s="46">
         <v>19</v>
       </c>
-      <c r="C54" s="66" t="s">
+      <c r="C55" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="D54" s="67"/>
-      <c r="E54" s="68" t="s">
+      <c r="D55" s="66"/>
+      <c r="E55" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="F54" s="69"/>
-      <c r="G54" s="69"/>
-      <c r="H54" s="70"/>
-    </row>
-    <row r="55" spans="2:11" ht="18.75">
-      <c r="B55" s="46">
+      <c r="F55" s="68"/>
+      <c r="G55" s="68"/>
+      <c r="H55" s="69"/>
+    </row>
+    <row r="56" spans="2:8" ht="18.75">
+      <c r="B56" s="46">
         <v>20</v>
       </c>
-      <c r="C55" s="66" t="s">
+      <c r="C56" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="D55" s="67"/>
-      <c r="E55" s="68" t="s">
+      <c r="D56" s="66"/>
+      <c r="E56" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="F55" s="69"/>
-      <c r="G55" s="69"/>
-      <c r="H55" s="70"/>
-    </row>
-    <row r="56" spans="2:11" ht="19.5" thickBot="1">
-      <c r="B56" s="39">
+      <c r="F56" s="68"/>
+      <c r="G56" s="68"/>
+      <c r="H56" s="69"/>
+    </row>
+    <row r="57" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B57" s="39">
         <v>21</v>
       </c>
-      <c r="C56" s="61" t="s">
+      <c r="C57" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="D56" s="62"/>
-      <c r="E56" s="63" t="s">
+      <c r="D57" s="92"/>
+      <c r="E57" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="F56" s="64"/>
-      <c r="G56" s="64"/>
-      <c r="H56" s="65"/>
-    </row>
-    <row r="64" spans="2:11">
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
+      <c r="F57" s="94"/>
+      <c r="G57" s="94"/>
+      <c r="H57" s="95"/>
+    </row>
+    <row r="65" spans="10:11">
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:H38"/>
     <mergeCell ref="A1:M1"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F32:G32"/>
     <mergeCell ref="B9:G11"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="F3:G3"/>
@@ -3814,970 +3824,10 @@
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="B8:G8"/>
-  </mergeCells>
-  <phoneticPr fontId="7"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F67A314-C734-4D7B-9527-25C2421D6718}">
-  <dimension ref="A1:O75"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection sqref="A1:M1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="16.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="25.5" thickBot="1">
-      <c r="A1" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-    </row>
-    <row r="2" spans="1:13" ht="17.25" thickTop="1" thickBot="1"/>
-    <row r="3" spans="1:13" ht="18.75">
-      <c r="B3" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="76" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="78"/>
-    </row>
-    <row r="4" spans="1:13" ht="18.75">
-      <c r="B4" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="92">
-        <v>45265</v>
-      </c>
-      <c r="G4" s="93"/>
-    </row>
-    <row r="5" spans="1:13" ht="18.75">
-      <c r="B5" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="80"/>
-      <c r="E5" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="92">
-        <v>45265</v>
-      </c>
-      <c r="G5" s="93"/>
-    </row>
-    <row r="6" spans="1:13" ht="18.75">
-      <c r="B6" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="79" t="str">
-        <f>テーブル一覧表!D7</f>
-        <v>メール管理テーブル</v>
-      </c>
-      <c r="D6" s="80"/>
-      <c r="E6" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="79"/>
-      <c r="G6" s="81"/>
-    </row>
-    <row r="7" spans="1:13" ht="18.75">
-      <c r="B7" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="79" t="s">
-        <v>125</v>
-      </c>
-      <c r="D7" s="80"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="81"/>
-    </row>
-    <row r="8" spans="1:13" ht="18.75">
-      <c r="B8" s="89" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="91"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1">
-      <c r="B9" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="84"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1">
-      <c r="B10" s="85"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="84"/>
-    </row>
-    <row r="11" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B11" s="86"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="88"/>
-    </row>
-    <row r="12" spans="1:13" ht="16.5" customHeight="1">
-      <c r="B12" s="96"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-    </row>
-    <row r="13" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:13" ht="16.5" customHeight="1">
-      <c r="B14" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="16.5" customHeight="1">
-      <c r="B15" s="15">
-        <v>1</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="I15" s="12"/>
-    </row>
-    <row r="16" spans="1:13" ht="16.5" customHeight="1">
-      <c r="B16" s="15">
-        <v>2</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="12"/>
-    </row>
-    <row r="17" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B17" s="15">
-        <v>3</v>
-      </c>
-      <c r="C17" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="12"/>
-    </row>
-    <row r="18" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B18" s="15">
-        <v>4</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="12"/>
-    </row>
-    <row r="19" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B19" s="15">
-        <v>5</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="12"/>
-    </row>
-    <row r="20" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B20" s="15">
-        <v>6</v>
-      </c>
-      <c r="C20" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="12"/>
-    </row>
-    <row r="21" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B21" s="26">
-        <v>7</v>
-      </c>
-      <c r="C21" s="97" t="s">
-        <v>134</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="95"/>
-    </row>
-    <row r="23" spans="1:9" ht="16.5" thickBot="1">
-      <c r="B23" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-    </row>
-    <row r="24" spans="1:9" ht="18.75">
-      <c r="B24" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="E24" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="F24" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="G24" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="H24" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="I24"/>
-    </row>
-    <row r="25" spans="1:9" ht="18.75">
-      <c r="B25" s="47">
-        <v>1</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="E25" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="F25" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="G25" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="H25" s="48"/>
-      <c r="I25"/>
-    </row>
-    <row r="26" spans="1:9" ht="18.75">
-      <c r="B26" s="47">
-        <v>2</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="D26" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="E26" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="F26" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="G26" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="H26" s="48"/>
-      <c r="I26"/>
-    </row>
-    <row r="27" spans="1:9" ht="19.5" thickBot="1">
-      <c r="B27" s="42">
-        <v>3</v>
-      </c>
-      <c r="C27" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="D27" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="E27" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="F27" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="G27" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="H27" s="45"/>
-      <c r="I27"/>
-    </row>
-    <row r="28" spans="1:9" ht="18.75">
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-    </row>
-    <row r="29" spans="1:9" ht="16.5" thickBot="1">
-      <c r="B29" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-    </row>
-    <row r="30" spans="1:9" ht="18.75">
-      <c r="B30" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="41"/>
-      <c r="F30" s="71" t="s">
-        <v>51</v>
-      </c>
-      <c r="G30" s="72"/>
-      <c r="H30" s="31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="19.5" thickBot="1">
-      <c r="B31" s="2"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="25"/>
-      <c r="I31"/>
-    </row>
-    <row r="32" spans="1:9" ht="18.75">
-      <c r="A32"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-    </row>
-    <row r="33" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A33"/>
-      <c r="B33" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-    </row>
-    <row r="34" spans="1:9" ht="18.75">
-      <c r="A34"/>
-      <c r="B34" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="E34" s="41"/>
-      <c r="F34" s="71" t="s">
-        <v>105</v>
-      </c>
-      <c r="G34" s="72"/>
-      <c r="H34" s="31" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="19.5" thickBot="1">
-      <c r="B35" s="2"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="25"/>
-      <c r="I35"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="B36" s="40"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-    </row>
-    <row r="37" spans="1:9" ht="16.5" thickBot="1">
-      <c r="B37" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-    </row>
-    <row r="38" spans="1:9" ht="19.5" customHeight="1">
-      <c r="B38" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D38" s="41"/>
-      <c r="E38" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="38"/>
-    </row>
-    <row r="39" spans="1:9" ht="18.75">
-      <c r="B39" s="46">
-        <v>1</v>
-      </c>
-      <c r="C39" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" s="67"/>
-      <c r="E39" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="F39" s="69"/>
-      <c r="G39" s="69"/>
-      <c r="H39" s="70"/>
-    </row>
-    <row r="40" spans="1:9" ht="18.75">
-      <c r="B40" s="46">
-        <v>2</v>
-      </c>
-      <c r="C40" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="67"/>
-      <c r="E40" s="68" t="str">
-        <f>C5</f>
-        <v>ACSystem</v>
-      </c>
-      <c r="F40" s="69"/>
-      <c r="G40" s="69"/>
-      <c r="H40" s="70"/>
-    </row>
-    <row r="41" spans="1:9" ht="18.75">
-      <c r="B41" s="46">
-        <v>3</v>
-      </c>
-      <c r="C41" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" s="67"/>
-      <c r="E41" s="68" t="str">
-        <f>C7</f>
-        <v>mailbox</v>
-      </c>
-      <c r="F41" s="69"/>
-      <c r="G41" s="69"/>
-      <c r="H41" s="70"/>
-    </row>
-    <row r="42" spans="1:9" ht="18.75">
-      <c r="B42" s="46">
-        <v>4</v>
-      </c>
-      <c r="C42" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="D42" s="67"/>
-      <c r="E42" s="68" t="s">
-        <v>108</v>
-      </c>
-      <c r="F42" s="69"/>
-      <c r="G42" s="69"/>
-      <c r="H42" s="70"/>
-    </row>
-    <row r="43" spans="1:9" ht="18.75">
-      <c r="B43" s="46">
-        <v>5</v>
-      </c>
-      <c r="C43" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" s="67"/>
-      <c r="E43" s="68" t="s">
-        <v>109</v>
-      </c>
-      <c r="F43" s="69"/>
-      <c r="G43" s="69"/>
-      <c r="H43" s="70"/>
-    </row>
-    <row r="44" spans="1:9" ht="18.75">
-      <c r="B44" s="46">
-        <v>6</v>
-      </c>
-      <c r="C44" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="D44" s="67"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="69"/>
-      <c r="H44" s="70"/>
-    </row>
-    <row r="45" spans="1:9" ht="18.75">
-      <c r="B45" s="46">
-        <v>7</v>
-      </c>
-      <c r="C45" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="D45" s="67"/>
-      <c r="E45" s="68"/>
-      <c r="F45" s="69"/>
-      <c r="G45" s="69"/>
-      <c r="H45" s="70"/>
-    </row>
-    <row r="46" spans="1:9" ht="18.75">
-      <c r="B46" s="46">
-        <v>8</v>
-      </c>
-      <c r="C46" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="D46" s="67"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="69"/>
-      <c r="H46" s="70"/>
-    </row>
-    <row r="47" spans="1:9" ht="18.75">
-      <c r="B47" s="46">
-        <v>9</v>
-      </c>
-      <c r="C47" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="D47" s="67"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="69"/>
-      <c r="G47" s="69"/>
-      <c r="H47" s="70"/>
-    </row>
-    <row r="48" spans="1:9" ht="18.75">
-      <c r="B48" s="46">
-        <v>10</v>
-      </c>
-      <c r="C48" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="D48" s="67"/>
-      <c r="E48" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="F48" s="69"/>
-      <c r="G48" s="69"/>
-      <c r="H48" s="70"/>
-    </row>
-    <row r="49" spans="2:13" ht="18.75">
-      <c r="B49" s="46">
-        <v>11</v>
-      </c>
-      <c r="C49" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="D49" s="67"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="69"/>
-      <c r="G49" s="69"/>
-      <c r="H49" s="70"/>
-    </row>
-    <row r="50" spans="2:13" ht="18.75">
-      <c r="B50" s="46">
-        <v>12</v>
-      </c>
-      <c r="C50" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="D50" s="67"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="69"/>
-      <c r="G50" s="69"/>
-      <c r="H50" s="70"/>
-    </row>
-    <row r="51" spans="2:13" ht="18.75">
-      <c r="B51" s="46">
-        <v>13</v>
-      </c>
-      <c r="C51" s="66" t="s">
-        <v>31</v>
-      </c>
-      <c r="D51" s="67"/>
-      <c r="E51" s="68"/>
-      <c r="F51" s="69"/>
-      <c r="G51" s="69"/>
-      <c r="H51" s="70"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-    </row>
-    <row r="52" spans="2:13" ht="18.75">
-      <c r="B52" s="46">
-        <v>14</v>
-      </c>
-      <c r="C52" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="D52" s="67"/>
-      <c r="E52" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="F52" s="69"/>
-      <c r="G52" s="69"/>
-      <c r="H52" s="70"/>
-    </row>
-    <row r="53" spans="2:13" ht="18.75">
-      <c r="B53" s="46">
-        <v>15</v>
-      </c>
-      <c r="C53" s="66" t="s">
-        <v>29</v>
-      </c>
-      <c r="D53" s="67"/>
-      <c r="E53" s="73" t="s">
-        <v>128</v>
-      </c>
-      <c r="F53" s="74"/>
-      <c r="G53" s="74"/>
-      <c r="H53" s="75"/>
-    </row>
-    <row r="54" spans="2:13" ht="18.75">
-      <c r="B54" s="46">
-        <v>16</v>
-      </c>
-      <c r="C54" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="D54" s="67"/>
-      <c r="E54" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="F54" s="69"/>
-      <c r="G54" s="69"/>
-      <c r="H54" s="70"/>
-    </row>
-    <row r="55" spans="2:13" ht="18.75">
-      <c r="B55" s="46">
-        <v>17</v>
-      </c>
-      <c r="C55" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="D55" s="67"/>
-      <c r="E55" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="F55" s="69"/>
-      <c r="G55" s="69"/>
-      <c r="H55" s="70"/>
-    </row>
-    <row r="56" spans="2:13" ht="18.75">
-      <c r="B56" s="46">
-        <v>18</v>
-      </c>
-      <c r="C56" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="D56" s="67"/>
-      <c r="E56" s="68" t="s">
-        <v>110</v>
-      </c>
-      <c r="F56" s="69"/>
-      <c r="G56" s="69"/>
-      <c r="H56" s="70"/>
-    </row>
-    <row r="57" spans="2:13" ht="18.75">
-      <c r="B57" s="46">
-        <v>19</v>
-      </c>
-      <c r="C57" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="D57" s="67"/>
-      <c r="E57" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="F57" s="69"/>
-      <c r="G57" s="69"/>
-      <c r="H57" s="70"/>
-    </row>
-    <row r="58" spans="2:13" ht="18.75">
-      <c r="B58" s="46">
-        <v>20</v>
-      </c>
-      <c r="C58" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="D58" s="67"/>
-      <c r="E58" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="F58" s="69"/>
-      <c r="G58" s="69"/>
-      <c r="H58" s="70"/>
-    </row>
-    <row r="59" spans="2:13" ht="19.5" thickBot="1">
-      <c r="B59" s="39">
-        <v>21</v>
-      </c>
-      <c r="C59" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="D59" s="62"/>
-      <c r="E59" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="F59" s="64"/>
-      <c r="G59" s="64"/>
-      <c r="H59" s="65"/>
-    </row>
-    <row r="60" spans="2:13">
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-    </row>
-    <row r="61" spans="2:13">
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-    </row>
-    <row r="62" spans="2:13">
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-    </row>
-    <row r="63" spans="2:13">
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-    </row>
-    <row r="64" spans="2:13">
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-    </row>
-    <row r="75" spans="10:15">
-      <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
-      <c r="M75" s="4"/>
-      <c r="N75" s="4"/>
-      <c r="O75" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="B9:G11"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:H38"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="E39:H39"/>
     <mergeCell ref="C40:D40"/>
@@ -4812,6 +3862,959 @@
     <mergeCell ref="E54:H54"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="E55:H55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:H57"/>
+  </mergeCells>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F67A314-C734-4D7B-9527-25C2421D6718}">
+  <dimension ref="A1:O75"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection sqref="A1:M1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="16.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="25.5" thickBot="1">
+      <c r="A1" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+    </row>
+    <row r="2" spans="1:13" ht="17.25" thickTop="1" thickBot="1"/>
+    <row r="3" spans="1:13" ht="18.75">
+      <c r="B3" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="77"/>
+      <c r="E3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="78"/>
+    </row>
+    <row r="4" spans="1:13" ht="18.75">
+      <c r="B4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="79"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="96">
+        <v>45265</v>
+      </c>
+      <c r="G4" s="97"/>
+    </row>
+    <row r="5" spans="1:13" ht="18.75">
+      <c r="B5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="80"/>
+      <c r="E5" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="96">
+        <v>45265</v>
+      </c>
+      <c r="G5" s="97"/>
+    </row>
+    <row r="6" spans="1:13" ht="18.75">
+      <c r="B6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="79" t="str">
+        <f>テーブル一覧表!D7</f>
+        <v>メール管理テーブル</v>
+      </c>
+      <c r="D6" s="80"/>
+      <c r="E6" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="79"/>
+      <c r="G6" s="81"/>
+    </row>
+    <row r="7" spans="1:13" ht="18.75">
+      <c r="B7" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="79" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="80"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="81"/>
+    </row>
+    <row r="8" spans="1:13" ht="18.75">
+      <c r="B8" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="72"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" customHeight="1">
+      <c r="B9" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="84"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1">
+      <c r="B10" s="85"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="84"/>
+    </row>
+    <row r="11" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
+      <c r="B11" s="86"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="88"/>
+    </row>
+    <row r="12" spans="1:13" ht="16.5" customHeight="1">
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+    </row>
+    <row r="13" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
+      <c r="B13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" ht="16.5" customHeight="1">
+      <c r="B14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="16.5" customHeight="1">
+      <c r="B15" s="15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="1:13" ht="16.5" customHeight="1">
+      <c r="B16" s="15">
+        <v>2</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B17" s="15">
+        <v>3</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B18" s="15">
+        <v>4</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B19" s="15">
+        <v>5</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B20" s="15">
+        <v>6</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="B21" s="26">
+        <v>7</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="51"/>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" thickBot="1">
+      <c r="B23" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+    </row>
+    <row r="24" spans="1:9" ht="18.75">
+      <c r="B24" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24"/>
+    </row>
+    <row r="25" spans="1:9" ht="18.75">
+      <c r="B25" s="47">
+        <v>1</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="H25" s="48"/>
+      <c r="I25"/>
+    </row>
+    <row r="26" spans="1:9" ht="18.75">
+      <c r="B26" s="47">
+        <v>2</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="H26" s="48"/>
+      <c r="I26"/>
+    </row>
+    <row r="27" spans="1:9" ht="19.5" thickBot="1">
+      <c r="B27" s="42">
+        <v>3</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="G27" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="H27" s="45"/>
+      <c r="I27"/>
+    </row>
+    <row r="28" spans="1:9" ht="18.75">
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+    </row>
+    <row r="29" spans="1:9" ht="16.5" thickBot="1">
+      <c r="B29" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+    </row>
+    <row r="30" spans="1:9" ht="18.75">
+      <c r="B30" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="41"/>
+      <c r="F30" s="89" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" s="90"/>
+      <c r="H30" s="31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="19.5" thickBot="1">
+      <c r="B31" s="2"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="25"/>
+      <c r="I31"/>
+    </row>
+    <row r="32" spans="1:9" ht="18.75">
+      <c r="A32"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+    </row>
+    <row r="33" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A33"/>
+      <c r="B33" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+    </row>
+    <row r="34" spans="1:9" ht="18.75">
+      <c r="A34"/>
+      <c r="B34" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="41"/>
+      <c r="F34" s="89" t="s">
+        <v>105</v>
+      </c>
+      <c r="G34" s="90"/>
+      <c r="H34" s="31" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="19.5" thickBot="1">
+      <c r="B35" s="2"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="25"/>
+      <c r="I35"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="B36" s="40"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+    </row>
+    <row r="37" spans="1:9" ht="16.5" thickBot="1">
+      <c r="B37" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+    </row>
+    <row r="38" spans="1:9" ht="19.5" customHeight="1">
+      <c r="B38" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="41"/>
+      <c r="E38" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="38"/>
+    </row>
+    <row r="39" spans="1:9" ht="18.75">
+      <c r="B39" s="46">
+        <v>1</v>
+      </c>
+      <c r="C39" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="66"/>
+      <c r="E39" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="69"/>
+    </row>
+    <row r="40" spans="1:9" ht="18.75">
+      <c r="B40" s="46">
+        <v>2</v>
+      </c>
+      <c r="C40" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="66"/>
+      <c r="E40" s="67" t="str">
+        <f>C5</f>
+        <v>ACSystem</v>
+      </c>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="69"/>
+    </row>
+    <row r="41" spans="1:9" ht="18.75">
+      <c r="B41" s="46">
+        <v>3</v>
+      </c>
+      <c r="C41" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="66"/>
+      <c r="E41" s="67" t="str">
+        <f>C7</f>
+        <v>mailbox</v>
+      </c>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="69"/>
+    </row>
+    <row r="42" spans="1:9" ht="18.75">
+      <c r="B42" s="46">
+        <v>4</v>
+      </c>
+      <c r="C42" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="66"/>
+      <c r="E42" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="F42" s="68"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="69"/>
+    </row>
+    <row r="43" spans="1:9" ht="18.75">
+      <c r="B43" s="46">
+        <v>5</v>
+      </c>
+      <c r="C43" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="66"/>
+      <c r="E43" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="F43" s="68"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="69"/>
+    </row>
+    <row r="44" spans="1:9" ht="18.75">
+      <c r="B44" s="46">
+        <v>6</v>
+      </c>
+      <c r="C44" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="66"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="69"/>
+    </row>
+    <row r="45" spans="1:9" ht="18.75">
+      <c r="B45" s="46">
+        <v>7</v>
+      </c>
+      <c r="C45" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="66"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="69"/>
+    </row>
+    <row r="46" spans="1:9" ht="18.75">
+      <c r="B46" s="46">
+        <v>8</v>
+      </c>
+      <c r="C46" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="66"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="69"/>
+    </row>
+    <row r="47" spans="1:9" ht="18.75">
+      <c r="B47" s="46">
+        <v>9</v>
+      </c>
+      <c r="C47" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="66"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="69"/>
+    </row>
+    <row r="48" spans="1:9" ht="18.75">
+      <c r="B48" s="46">
+        <v>10</v>
+      </c>
+      <c r="C48" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="D48" s="66"/>
+      <c r="E48" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="F48" s="68"/>
+      <c r="G48" s="68"/>
+      <c r="H48" s="69"/>
+    </row>
+    <row r="49" spans="2:13" ht="18.75">
+      <c r="B49" s="46">
+        <v>11</v>
+      </c>
+      <c r="C49" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="66"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="69"/>
+    </row>
+    <row r="50" spans="2:13" ht="18.75">
+      <c r="B50" s="46">
+        <v>12</v>
+      </c>
+      <c r="C50" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="66"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="69"/>
+    </row>
+    <row r="51" spans="2:13" ht="18.75">
+      <c r="B51" s="46">
+        <v>13</v>
+      </c>
+      <c r="C51" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="66"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="69"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+    </row>
+    <row r="52" spans="2:13" ht="18.75">
+      <c r="B52" s="46">
+        <v>14</v>
+      </c>
+      <c r="C52" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="66"/>
+      <c r="E52" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" s="68"/>
+      <c r="G52" s="68"/>
+      <c r="H52" s="69"/>
+    </row>
+    <row r="53" spans="2:13" ht="18.75">
+      <c r="B53" s="46">
+        <v>15</v>
+      </c>
+      <c r="C53" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" s="66"/>
+      <c r="E53" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="F53" s="74"/>
+      <c r="G53" s="74"/>
+      <c r="H53" s="75"/>
+    </row>
+    <row r="54" spans="2:13" ht="18.75">
+      <c r="B54" s="46">
+        <v>16</v>
+      </c>
+      <c r="C54" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" s="66"/>
+      <c r="E54" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54" s="68"/>
+      <c r="G54" s="68"/>
+      <c r="H54" s="69"/>
+    </row>
+    <row r="55" spans="2:13" ht="18.75">
+      <c r="B55" s="46">
+        <v>17</v>
+      </c>
+      <c r="C55" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" s="66"/>
+      <c r="E55" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" s="68"/>
+      <c r="G55" s="68"/>
+      <c r="H55" s="69"/>
+    </row>
+    <row r="56" spans="2:13" ht="18.75">
+      <c r="B56" s="46">
+        <v>18</v>
+      </c>
+      <c r="C56" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="66"/>
+      <c r="E56" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" s="68"/>
+      <c r="G56" s="68"/>
+      <c r="H56" s="69"/>
+    </row>
+    <row r="57" spans="2:13" ht="18.75">
+      <c r="B57" s="46">
+        <v>19</v>
+      </c>
+      <c r="C57" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" s="66"/>
+      <c r="E57" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="68"/>
+      <c r="G57" s="68"/>
+      <c r="H57" s="69"/>
+    </row>
+    <row r="58" spans="2:13" ht="18.75">
+      <c r="B58" s="46">
+        <v>20</v>
+      </c>
+      <c r="C58" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58" s="66"/>
+      <c r="E58" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" s="68"/>
+      <c r="G58" s="68"/>
+      <c r="H58" s="69"/>
+    </row>
+    <row r="59" spans="2:13" ht="19.5" thickBot="1">
+      <c r="B59" s="39">
+        <v>21</v>
+      </c>
+      <c r="C59" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" s="92"/>
+      <c r="E59" s="93" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59" s="94"/>
+      <c r="G59" s="94"/>
+      <c r="H59" s="95"/>
+    </row>
+    <row r="60" spans="2:13">
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+    </row>
+    <row r="61" spans="2:13">
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+    </row>
+    <row r="62" spans="2:13">
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+    </row>
+    <row r="63" spans="2:13">
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+    </row>
+    <row r="64" spans="2:13">
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+    </row>
+    <row r="75" spans="10:15">
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="57">
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="E59:H59"/>
     <mergeCell ref="C56:D56"/>
@@ -4820,6 +4823,55 @@
     <mergeCell ref="E57:H57"/>
     <mergeCell ref="C58:D58"/>
     <mergeCell ref="E58:H58"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="B9:G11"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B8:G8"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4848,21 +4900,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="25.5" thickBot="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
     </row>
     <row r="2" spans="1:13" ht="17.25" thickTop="1" thickBot="1"/>
     <row r="3" spans="1:13" ht="18.75">
@@ -4890,10 +4942,10 @@
       <c r="E4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="92">
+      <c r="F4" s="96">
         <v>45265</v>
       </c>
-      <c r="G4" s="93"/>
+      <c r="G4" s="97"/>
     </row>
     <row r="5" spans="1:13" ht="18.75">
       <c r="B5" s="19" t="s">
@@ -4906,10 +4958,10 @@
       <c r="E5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="92">
+      <c r="F5" s="96">
         <v>45265</v>
       </c>
-      <c r="G5" s="93"/>
+      <c r="G5" s="97"/>
     </row>
     <row r="6" spans="1:13" ht="18.75">
       <c r="B6" s="19" t="s">
@@ -4939,14 +4991,14 @@
       <c r="G7" s="81"/>
     </row>
     <row r="8" spans="1:13" ht="18.75">
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="91"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="72"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="B9" s="82" t="s">
@@ -4975,12 +5027,12 @@
       <c r="G11" s="88"/>
     </row>
     <row r="12" spans="1:13" ht="16.5" customHeight="1">
-      <c r="B12" s="96"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
     </row>
     <row r="13" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
       <c r="B13" s="6" t="s">
@@ -5064,7 +5116,7 @@
       <c r="B17" s="15">
         <v>3</v>
       </c>
-      <c r="C17" s="94" t="s">
+      <c r="C17" s="50" t="s">
         <v>143</v>
       </c>
       <c r="D17" s="10" t="s">
@@ -5102,7 +5154,7 @@
         <v>79</v>
       </c>
       <c r="H18" s="7"/>
-      <c r="I18" s="95"/>
+      <c r="I18" s="51"/>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickBot="1">
       <c r="B20" s="27" t="s">
@@ -5192,10 +5244,10 @@
         <v>47</v>
       </c>
       <c r="E25" s="41"/>
-      <c r="F25" s="71" t="s">
+      <c r="F25" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="72"/>
+      <c r="G25" s="90"/>
       <c r="H25" s="31" t="s">
         <v>50</v>
       </c>
@@ -5244,10 +5296,10 @@
         <v>47</v>
       </c>
       <c r="E29" s="41"/>
-      <c r="F29" s="71" t="s">
+      <c r="F29" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="G29" s="72"/>
+      <c r="G29" s="90"/>
       <c r="H29" s="31" t="s">
         <v>106</v>
       </c>
@@ -5301,184 +5353,184 @@
       <c r="B34" s="46">
         <v>1</v>
       </c>
-      <c r="C34" s="66" t="s">
+      <c r="C34" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="67"/>
-      <c r="E34" s="68" t="s">
+      <c r="D34" s="66"/>
+      <c r="E34" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="F34" s="69"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="70"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="69"/>
     </row>
     <row r="35" spans="2:13" ht="18.75">
       <c r="B35" s="46">
         <v>2</v>
       </c>
-      <c r="C35" s="66" t="s">
+      <c r="C35" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="67"/>
-      <c r="E35" s="68" t="str">
+      <c r="D35" s="66"/>
+      <c r="E35" s="67" t="str">
         <f>C5</f>
         <v>ACSystem</v>
       </c>
-      <c r="F35" s="69"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="70"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="69"/>
     </row>
     <row r="36" spans="2:13" ht="18.75">
       <c r="B36" s="46">
         <v>3</v>
       </c>
-      <c r="C36" s="66" t="s">
+      <c r="C36" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="67"/>
-      <c r="E36" s="68" t="str">
+      <c r="D36" s="66"/>
+      <c r="E36" s="67" t="str">
         <f>C7</f>
         <v>notifications</v>
       </c>
-      <c r="F36" s="69"/>
-      <c r="G36" s="69"/>
-      <c r="H36" s="70"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="69"/>
     </row>
     <row r="37" spans="2:13" ht="18.75">
       <c r="B37" s="46">
         <v>4</v>
       </c>
-      <c r="C37" s="66" t="s">
+      <c r="C37" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="67"/>
-      <c r="E37" s="68" t="s">
+      <c r="D37" s="66"/>
+      <c r="E37" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="F37" s="69"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="70"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="69"/>
     </row>
     <row r="38" spans="2:13" ht="18.75">
       <c r="B38" s="46">
         <v>5</v>
       </c>
-      <c r="C38" s="66" t="s">
+      <c r="C38" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="67"/>
-      <c r="E38" s="68" t="s">
+      <c r="D38" s="66"/>
+      <c r="E38" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="F38" s="69"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="70"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="69"/>
     </row>
     <row r="39" spans="2:13" ht="18.75">
       <c r="B39" s="46">
         <v>6</v>
       </c>
-      <c r="C39" s="66" t="s">
+      <c r="C39" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="67"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="69"/>
-      <c r="H39" s="70"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="69"/>
     </row>
     <row r="40" spans="2:13" ht="18.75">
       <c r="B40" s="46">
         <v>7</v>
       </c>
-      <c r="C40" s="66" t="s">
+      <c r="C40" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="67"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="69"/>
-      <c r="G40" s="69"/>
-      <c r="H40" s="70"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="69"/>
     </row>
     <row r="41" spans="2:13" ht="18.75">
       <c r="B41" s="46">
         <v>8</v>
       </c>
-      <c r="C41" s="66" t="s">
+      <c r="C41" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="D41" s="67"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="69"/>
-      <c r="G41" s="69"/>
-      <c r="H41" s="70"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="69"/>
     </row>
     <row r="42" spans="2:13" ht="18.75">
       <c r="B42" s="46">
         <v>9</v>
       </c>
-      <c r="C42" s="66" t="s">
+      <c r="C42" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="67"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="69"/>
-      <c r="H42" s="70"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="69"/>
     </row>
     <row r="43" spans="2:13" ht="18.75">
       <c r="B43" s="46">
         <v>10</v>
       </c>
-      <c r="C43" s="66" t="s">
+      <c r="C43" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="D43" s="67"/>
-      <c r="E43" s="68" t="s">
+      <c r="D43" s="66"/>
+      <c r="E43" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="F43" s="69"/>
-      <c r="G43" s="69"/>
-      <c r="H43" s="70"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="69"/>
     </row>
     <row r="44" spans="2:13" ht="18.75">
       <c r="B44" s="46">
         <v>11</v>
       </c>
-      <c r="C44" s="66" t="s">
+      <c r="C44" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="D44" s="67"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="69"/>
-      <c r="H44" s="70"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="69"/>
     </row>
     <row r="45" spans="2:13" ht="18.75">
       <c r="B45" s="46">
         <v>12</v>
       </c>
-      <c r="C45" s="66" t="s">
+      <c r="C45" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="D45" s="67"/>
-      <c r="E45" s="68"/>
-      <c r="F45" s="69"/>
-      <c r="G45" s="69"/>
-      <c r="H45" s="70"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="69"/>
     </row>
     <row r="46" spans="2:13" ht="18.75">
       <c r="B46" s="46">
         <v>13</v>
       </c>
-      <c r="C46" s="66" t="s">
+      <c r="C46" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="D46" s="67"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="69"/>
-      <c r="H46" s="70"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="69"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
@@ -5488,25 +5540,25 @@
       <c r="B47" s="46">
         <v>14</v>
       </c>
-      <c r="C47" s="66" t="s">
+      <c r="C47" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="67"/>
-      <c r="E47" s="68" t="s">
+      <c r="D47" s="66"/>
+      <c r="E47" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="F47" s="69"/>
-      <c r="G47" s="69"/>
-      <c r="H47" s="70"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="69"/>
     </row>
     <row r="48" spans="2:13" ht="18.75">
       <c r="B48" s="46">
         <v>15</v>
       </c>
-      <c r="C48" s="66" t="s">
+      <c r="C48" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="67"/>
+      <c r="D48" s="66"/>
       <c r="E48" s="73" t="s">
         <v>152</v>
       </c>
@@ -5518,91 +5570,91 @@
       <c r="B49" s="46">
         <v>16</v>
       </c>
-      <c r="C49" s="66" t="s">
+      <c r="C49" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="67"/>
-      <c r="E49" s="68" t="s">
+      <c r="D49" s="66"/>
+      <c r="E49" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="F49" s="69"/>
-      <c r="G49" s="69"/>
-      <c r="H49" s="70"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="69"/>
     </row>
     <row r="50" spans="2:8" ht="18.75">
       <c r="B50" s="46">
         <v>17</v>
       </c>
-      <c r="C50" s="66" t="s">
+      <c r="C50" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="D50" s="67"/>
-      <c r="E50" s="68" t="s">
+      <c r="D50" s="66"/>
+      <c r="E50" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="F50" s="69"/>
-      <c r="G50" s="69"/>
-      <c r="H50" s="70"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="69"/>
     </row>
     <row r="51" spans="2:8" ht="18.75">
       <c r="B51" s="46">
         <v>18</v>
       </c>
-      <c r="C51" s="66" t="s">
+      <c r="C51" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D51" s="67"/>
-      <c r="E51" s="68" t="s">
+      <c r="D51" s="66"/>
+      <c r="E51" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="F51" s="69"/>
-      <c r="G51" s="69"/>
-      <c r="H51" s="70"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="69"/>
     </row>
     <row r="52" spans="2:8" ht="18.75">
       <c r="B52" s="46">
         <v>19</v>
       </c>
-      <c r="C52" s="66" t="s">
+      <c r="C52" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="67"/>
-      <c r="E52" s="68" t="s">
+      <c r="D52" s="66"/>
+      <c r="E52" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="F52" s="69"/>
-      <c r="G52" s="69"/>
-      <c r="H52" s="70"/>
+      <c r="F52" s="68"/>
+      <c r="G52" s="68"/>
+      <c r="H52" s="69"/>
     </row>
     <row r="53" spans="2:8" ht="18.75">
       <c r="B53" s="46">
         <v>20</v>
       </c>
-      <c r="C53" s="66" t="s">
+      <c r="C53" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="D53" s="67"/>
-      <c r="E53" s="68" t="s">
+      <c r="D53" s="66"/>
+      <c r="E53" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="F53" s="69"/>
-      <c r="G53" s="69"/>
-      <c r="H53" s="70"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="68"/>
+      <c r="H53" s="69"/>
     </row>
     <row r="54" spans="2:8" ht="19.5" thickBot="1">
       <c r="B54" s="39">
         <v>21</v>
       </c>
-      <c r="C54" s="61" t="s">
+      <c r="C54" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="D54" s="62"/>
-      <c r="E54" s="63" t="s">
+      <c r="D54" s="92"/>
+      <c r="E54" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="F54" s="64"/>
-      <c r="G54" s="64"/>
-      <c r="H54" s="65"/>
+      <c r="F54" s="94"/>
+      <c r="G54" s="94"/>
+      <c r="H54" s="95"/>
     </row>
     <row r="55" spans="2:8">
       <c r="B55" s="3"/>
@@ -5654,6 +5706,55 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="B9:G11"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:H50"/>
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="E54:H54"/>
     <mergeCell ref="C51:D51"/>
@@ -5662,55 +5763,6 @@
     <mergeCell ref="E52:H52"/>
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="E53:H53"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G11"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tasks/03_DB設計/ACSYSTEM_DB設計.xlsx
+++ b/Tasks/03_DB設計/ACSYSTEM_DB設計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ACSystem\Tasks\03_DB設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1E42BE-8CCD-4C7F-94F5-671A88129108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBBF696-23C2-47FA-B2F8-6EC254257AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="270" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧表" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="162">
   <si>
     <t>Attendance Check System - ACSYSTEM</t>
   </si>
@@ -739,6 +739,18 @@
   </si>
   <si>
     <t>false</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>attendance</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>mailbox</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>users</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -930,7 +942,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1269,6 +1281,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1280,7 +1344,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
@@ -1422,24 +1486,39 @@
     <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1453,15 +1532,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1512,25 +1582,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1538,6 +1602,35 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1886,21 +1979,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="25.5" thickBot="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
     </row>
     <row r="2" spans="1:13" ht="19.5" thickTop="1"/>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -1912,84 +2005,90 @@
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54" t="s">
+      <c r="E4" s="63"/>
+      <c r="F4" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54" t="s">
+      <c r="G4" s="63"/>
+      <c r="H4" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="55"/>
+      <c r="I4" s="64"/>
     </row>
     <row r="5" spans="1:13" ht="19.5">
       <c r="C5" s="33">
         <v>1</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="56"/>
+      <c r="E5" s="61"/>
       <c r="F5" s="57" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="57"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="63"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="59"/>
     </row>
     <row r="6" spans="1:13" ht="19.5">
       <c r="C6" s="33">
         <v>2</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="56"/>
+      <c r="E6" s="61"/>
       <c r="F6" s="57" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="57"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="63"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="59"/>
     </row>
     <row r="7" spans="1:13" ht="19.5">
       <c r="C7" s="33">
         <v>3</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="56"/>
+      <c r="E7" s="61"/>
       <c r="F7" s="57" t="s">
         <v>91</v>
       </c>
       <c r="G7" s="57"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="63"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="59"/>
     </row>
     <row r="8" spans="1:13" ht="20.25" thickBot="1">
       <c r="C8" s="34">
         <v>4</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="59" t="s">
+      <c r="E8" s="53"/>
+      <c r="F8" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="G8" s="59"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="61"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="56"/>
     </row>
     <row r="14" spans="1:13">
       <c r="H14" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="H8:I8"/>
@@ -2000,12 +2099,6 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <hyperlinks>
@@ -2022,10 +2115,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2042,132 +2135,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="25.5" thickBot="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
     </row>
     <row r="2" spans="1:13" ht="17.25" thickTop="1" thickBot="1"/>
     <row r="3" spans="1:13" ht="18.75">
       <c r="B3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="77"/>
+      <c r="D3" s="79"/>
       <c r="E3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="76" t="s">
+      <c r="F3" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="78"/>
+      <c r="G3" s="80"/>
     </row>
     <row r="4" spans="1:13" ht="18.75">
       <c r="B4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="79" t="s">
+      <c r="F4" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="81"/>
+      <c r="G4" s="83"/>
     </row>
     <row r="5" spans="1:13" ht="18.75">
       <c r="B5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="80"/>
+      <c r="D5" s="82"/>
       <c r="E5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="79" t="s">
+      <c r="F5" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="G5" s="81"/>
+      <c r="G5" s="83"/>
     </row>
     <row r="6" spans="1:13" ht="18.75">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="79" t="str">
+      <c r="C6" s="81" t="str">
         <f>テーブル一覧表!D5</f>
         <v>利用者一覧テーブル</v>
       </c>
-      <c r="D6" s="80"/>
+      <c r="D6" s="82"/>
       <c r="E6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="79"/>
-      <c r="G6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="83"/>
     </row>
     <row r="7" spans="1:13" ht="18.75">
       <c r="B7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="80"/>
+      <c r="D7" s="82"/>
       <c r="E7" s="18"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="83"/>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:13" ht="18.75">
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="72"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="93"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="84"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="86"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="B10" s="85"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="84"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="86"/>
     </row>
     <row r="11" spans="1:13" ht="16.5" thickBot="1">
-      <c r="B11" s="86"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="88"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="90"/>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickBot="1">
       <c r="B13" s="6" t="s">
@@ -2479,446 +2572,487 @@
       <c r="C29" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="30" t="s">
-        <v>47</v>
-      </c>
+      <c r="D29" s="30"/>
       <c r="E29" s="41"/>
-      <c r="F29" s="89" t="s">
+      <c r="F29" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="G29" s="90"/>
+      <c r="G29" s="95"/>
       <c r="H29" s="31" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="19.5" thickBot="1">
-      <c r="B30" s="2"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="25"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="B31" s="40"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-    </row>
-    <row r="32" spans="1:11" ht="16.5" thickBot="1">
-      <c r="B32" s="27" t="s">
+    <row r="30" spans="1:11" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B30" s="47">
+        <v>1</v>
+      </c>
+      <c r="C30" s="101" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="101"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="105" t="s">
+        <v>159</v>
+      </c>
+      <c r="G30" s="106"/>
+      <c r="H30" s="102" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B31" s="47">
+        <v>2</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="105" t="s">
+        <v>160</v>
+      </c>
+      <c r="G31" s="106"/>
+      <c r="H31" s="100" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="19.5" thickBot="1">
+      <c r="B32" s="42">
+        <v>3</v>
+      </c>
+      <c r="C32" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="43"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="107" t="s">
+        <v>160</v>
+      </c>
+      <c r="G32" s="108"/>
+      <c r="H32" s="45" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" s="40"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+    </row>
+    <row r="34" spans="2:11" ht="16.5" thickBot="1">
+      <c r="B34" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-    </row>
-    <row r="33" spans="2:11" customFormat="1" ht="18.75">
-      <c r="B33" s="29" t="s">
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+    </row>
+    <row r="35" spans="2:11" customFormat="1" ht="18.75">
+      <c r="B35" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C35" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="E33" s="41"/>
-      <c r="F33" s="89" t="s">
+      <c r="D35" s="30"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="G33" s="90"/>
-      <c r="H33" s="31" t="s">
+      <c r="G35" s="95"/>
+      <c r="H35" s="31" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="2:11" ht="19.5" thickBot="1">
-      <c r="B34" s="2"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="25"/>
-    </row>
-    <row r="35" spans="2:11">
-      <c r="B35" s="40"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-    </row>
-    <row r="36" spans="2:11" ht="16.5" thickBot="1">
-      <c r="B36" s="27" t="s">
+    <row r="36" spans="2:11" ht="19.5" thickBot="1">
+      <c r="B36" s="2"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="104"/>
+      <c r="H36" s="25"/>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="B37" s="40"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+    </row>
+    <row r="38" spans="2:11" ht="16.5" thickBot="1">
+      <c r="B38" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-    </row>
-    <row r="37" spans="2:11">
-      <c r="B37" s="29" t="s">
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="B39" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C39" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="41"/>
-      <c r="E37" s="30" t="s">
+      <c r="D39" s="41"/>
+      <c r="E39" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="38"/>
-    </row>
-    <row r="38" spans="2:11" ht="18.75">
-      <c r="B38" s="46">
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="38"/>
+    </row>
+    <row r="40" spans="2:11" ht="18.75">
+      <c r="B40" s="46">
         <v>1</v>
       </c>
-      <c r="C38" s="65" t="s">
+      <c r="C40" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="66"/>
-      <c r="E38" s="67" t="s">
+      <c r="D40" s="71"/>
+      <c r="E40" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="F38" s="68"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="69"/>
-    </row>
-    <row r="39" spans="2:11" ht="18.75">
-      <c r="B39" s="46">
+      <c r="F40" s="73"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="74"/>
+    </row>
+    <row r="41" spans="2:11" ht="18.75">
+      <c r="B41" s="46">
         <v>2</v>
       </c>
-      <c r="C39" s="65" t="s">
+      <c r="C41" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="66"/>
-      <c r="E39" s="67" t="str">
+      <c r="D41" s="71"/>
+      <c r="E41" s="72" t="str">
         <f>C15</f>
         <v>ユニーク番号</v>
       </c>
-      <c r="F39" s="68"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="69"/>
-    </row>
-    <row r="40" spans="2:11" ht="18.75">
-      <c r="B40" s="46">
+      <c r="F41" s="73"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="74"/>
+    </row>
+    <row r="42" spans="2:11" ht="18.75">
+      <c r="B42" s="46">
         <v>3</v>
       </c>
-      <c r="C40" s="65" t="s">
+      <c r="C42" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="66"/>
-      <c r="E40" s="67" t="str">
+      <c r="D42" s="71"/>
+      <c r="E42" s="72" t="str">
         <f>C17</f>
         <v>クラス情報</v>
       </c>
-      <c r="F40" s="68"/>
-      <c r="G40" s="68"/>
-      <c r="H40" s="69"/>
-    </row>
-    <row r="41" spans="2:11" ht="18.75">
-      <c r="B41" s="46">
-        <v>4</v>
-      </c>
-      <c r="C41" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="D41" s="66"/>
-      <c r="E41" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="F41" s="68"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="69"/>
-    </row>
-    <row r="42" spans="2:11" ht="18.75">
-      <c r="B42" s="46">
-        <v>5</v>
-      </c>
-      <c r="C42" s="65" t="s">
-        <v>39</v>
-      </c>
-      <c r="D42" s="66"/>
-      <c r="E42" s="67" t="s">
-        <v>109</v>
-      </c>
-      <c r="F42" s="68"/>
-      <c r="G42" s="68"/>
-      <c r="H42" s="69"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="74"/>
     </row>
     <row r="43" spans="2:11" ht="18.75">
       <c r="B43" s="46">
-        <v>6</v>
-      </c>
-      <c r="C43" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="D43" s="66"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="68"/>
-      <c r="H43" s="69"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="C43" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="71"/>
+      <c r="E43" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="F43" s="73"/>
+      <c r="G43" s="73"/>
+      <c r="H43" s="74"/>
     </row>
     <row r="44" spans="2:11" ht="18.75">
       <c r="B44" s="46">
-        <v>7</v>
-      </c>
-      <c r="C44" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" s="66"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="68"/>
-      <c r="H44" s="69"/>
+        <v>5</v>
+      </c>
+      <c r="C44" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="71"/>
+      <c r="E44" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="F44" s="73"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="74"/>
     </row>
     <row r="45" spans="2:11" ht="18.75">
       <c r="B45" s="46">
-        <v>8</v>
-      </c>
-      <c r="C45" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="D45" s="66"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="68"/>
-      <c r="G45" s="68"/>
-      <c r="H45" s="69"/>
+        <v>6</v>
+      </c>
+      <c r="C45" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="71"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="73"/>
+      <c r="H45" s="74"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
     </row>
     <row r="46" spans="2:11" ht="18.75">
       <c r="B46" s="46">
-        <v>9</v>
-      </c>
-      <c r="C46" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="D46" s="66"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="68"/>
-      <c r="H46" s="69"/>
+        <v>7</v>
+      </c>
+      <c r="C46" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="71"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="74"/>
     </row>
     <row r="47" spans="2:11" ht="18.75">
       <c r="B47" s="46">
-        <v>10</v>
-      </c>
-      <c r="C47" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="D47" s="66"/>
-      <c r="E47" s="67" t="s">
-        <v>111</v>
-      </c>
-      <c r="F47" s="68"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="69"/>
+        <v>8</v>
+      </c>
+      <c r="C47" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" s="71"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="73"/>
+      <c r="G47" s="73"/>
+      <c r="H47" s="74"/>
     </row>
     <row r="48" spans="2:11" ht="18.75">
       <c r="B48" s="46">
-        <v>11</v>
-      </c>
-      <c r="C48" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="D48" s="66"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="68"/>
-      <c r="G48" s="68"/>
-      <c r="H48" s="69"/>
+        <v>9</v>
+      </c>
+      <c r="C48" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" s="71"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="73"/>
+      <c r="H48" s="74"/>
     </row>
     <row r="49" spans="2:8" ht="18.75">
       <c r="B49" s="46">
-        <v>12</v>
-      </c>
-      <c r="C49" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="D49" s="66"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="69"/>
+        <v>10</v>
+      </c>
+      <c r="C49" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" s="71"/>
+      <c r="E49" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="F49" s="73"/>
+      <c r="G49" s="73"/>
+      <c r="H49" s="74"/>
     </row>
     <row r="50" spans="2:8" ht="18.75">
       <c r="B50" s="46">
-        <v>13</v>
-      </c>
-      <c r="C50" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="D50" s="66"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="68"/>
-      <c r="G50" s="68"/>
-      <c r="H50" s="69"/>
+        <v>11</v>
+      </c>
+      <c r="C50" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="71"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="73"/>
+      <c r="G50" s="73"/>
+      <c r="H50" s="74"/>
     </row>
     <row r="51" spans="2:8" ht="18.75">
       <c r="B51" s="46">
-        <v>14</v>
-      </c>
-      <c r="C51" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" s="66"/>
-      <c r="E51" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="F51" s="68"/>
-      <c r="G51" s="68"/>
-      <c r="H51" s="69"/>
+        <v>12</v>
+      </c>
+      <c r="C51" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" s="71"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="73"/>
+      <c r="G51" s="73"/>
+      <c r="H51" s="74"/>
     </row>
     <row r="52" spans="2:8" ht="18.75">
       <c r="B52" s="46">
-        <v>15</v>
-      </c>
-      <c r="C52" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="D52" s="66"/>
-      <c r="E52" s="73" t="s">
-        <v>116</v>
-      </c>
-      <c r="F52" s="74"/>
-      <c r="G52" s="74"/>
-      <c r="H52" s="75"/>
+        <v>13</v>
+      </c>
+      <c r="C52" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52" s="71"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="73"/>
+      <c r="G52" s="73"/>
+      <c r="H52" s="74"/>
     </row>
     <row r="53" spans="2:8" ht="18.75">
       <c r="B53" s="46">
-        <v>16</v>
-      </c>
-      <c r="C53" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="D53" s="66"/>
-      <c r="E53" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="71"/>
+      <c r="E53" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="F53" s="68"/>
-      <c r="G53" s="68"/>
-      <c r="H53" s="69"/>
+      <c r="F53" s="73"/>
+      <c r="G53" s="73"/>
+      <c r="H53" s="74"/>
     </row>
     <row r="54" spans="2:8" ht="18.75">
       <c r="B54" s="46">
-        <v>17</v>
-      </c>
-      <c r="C54" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="D54" s="66"/>
-      <c r="E54" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="F54" s="68"/>
-      <c r="G54" s="68"/>
-      <c r="H54" s="69"/>
+        <v>15</v>
+      </c>
+      <c r="C54" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" s="71"/>
+      <c r="E54" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="F54" s="76"/>
+      <c r="G54" s="76"/>
+      <c r="H54" s="77"/>
     </row>
     <row r="55" spans="2:8" ht="18.75">
       <c r="B55" s="46">
-        <v>18</v>
-      </c>
-      <c r="C55" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="D55" s="66"/>
-      <c r="E55" s="67" t="s">
-        <v>110</v>
-      </c>
-      <c r="F55" s="68"/>
-      <c r="G55" s="68"/>
-      <c r="H55" s="69"/>
+        <v>16</v>
+      </c>
+      <c r="C55" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" s="71"/>
+      <c r="E55" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" s="73"/>
+      <c r="G55" s="73"/>
+      <c r="H55" s="74"/>
     </row>
     <row r="56" spans="2:8" ht="18.75">
       <c r="B56" s="46">
-        <v>19</v>
-      </c>
-      <c r="C56" s="65" t="s">
-        <v>25</v>
-      </c>
-      <c r="D56" s="66"/>
-      <c r="E56" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" s="71"/>
+      <c r="E56" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="F56" s="68"/>
-      <c r="G56" s="68"/>
-      <c r="H56" s="69"/>
+      <c r="F56" s="73"/>
+      <c r="G56" s="73"/>
+      <c r="H56" s="74"/>
     </row>
     <row r="57" spans="2:8" ht="18.75">
       <c r="B57" s="46">
+        <v>18</v>
+      </c>
+      <c r="C57" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" s="71"/>
+      <c r="E57" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" s="73"/>
+      <c r="G57" s="73"/>
+      <c r="H57" s="74"/>
+    </row>
+    <row r="58" spans="2:8" ht="18.75">
+      <c r="B58" s="46">
+        <v>19</v>
+      </c>
+      <c r="C58" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="71"/>
+      <c r="E58" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" s="73"/>
+      <c r="G58" s="73"/>
+      <c r="H58" s="74"/>
+    </row>
+    <row r="59" spans="2:8" ht="18.75">
+      <c r="B59" s="46">
         <v>20</v>
       </c>
-      <c r="C57" s="65" t="s">
+      <c r="C59" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D57" s="66"/>
-      <c r="E57" s="67" t="s">
+      <c r="D59" s="71"/>
+      <c r="E59" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="F57" s="68"/>
-      <c r="G57" s="68"/>
-      <c r="H57" s="69"/>
-    </row>
-    <row r="58" spans="2:8" ht="19.5" thickBot="1">
-      <c r="B58" s="39">
+      <c r="F59" s="73"/>
+      <c r="G59" s="73"/>
+      <c r="H59" s="74"/>
+    </row>
+    <row r="60" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B60" s="39">
         <v>21</v>
       </c>
-      <c r="C58" s="91" t="s">
+      <c r="C60" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="D58" s="92"/>
-      <c r="E58" s="93" t="s">
+      <c r="D60" s="66"/>
+      <c r="E60" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="F58" s="94"/>
-      <c r="G58" s="94"/>
-      <c r="H58" s="95"/>
-    </row>
-    <row r="67" spans="10:11">
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
+      <c r="F60" s="68"/>
+      <c r="G60" s="68"/>
+      <c r="H60" s="69"/>
+    </row>
+    <row r="69" spans="10:11">
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:H58"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:H57"/>
+  <mergeCells count="61">
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:H49"/>
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="E53:H53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="B8:G8"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="E40:H40"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="E41:H41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:H57"/>
     <mergeCell ref="A1:M1"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:H54"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="C4:D4"/>
@@ -2930,27 +3064,28 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:H44"/>
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="E45:H45"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="E46:H46"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="E47:H47"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:H60"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:H59"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2969,8 +3104,8 @@
   </sheetPr>
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2987,61 +3122,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="25.5" thickBot="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
     </row>
     <row r="2" spans="1:13" ht="17.25" thickTop="1" thickBot="1"/>
     <row r="3" spans="1:13" ht="18.75">
       <c r="B3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="77"/>
+      <c r="D3" s="79"/>
       <c r="E3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="76" t="s">
+      <c r="F3" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="78"/>
+      <c r="G3" s="80"/>
     </row>
     <row r="4" spans="1:13" ht="18.75">
       <c r="B4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="79" t="s">
+      <c r="F4" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="81"/>
+      <c r="G4" s="83"/>
     </row>
     <row r="5" spans="1:13" ht="18.75">
       <c r="B5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="80"/>
+      <c r="D5" s="82"/>
       <c r="E5" s="20" t="s">
         <v>20</v>
       </c>
@@ -3054,64 +3189,64 @@
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="79" t="str">
+      <c r="C6" s="81" t="str">
         <f>テーブル一覧表!D6</f>
         <v>出欠管理テーブル</v>
       </c>
-      <c r="D6" s="80"/>
+      <c r="D6" s="82"/>
       <c r="E6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="79"/>
-      <c r="G6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="83"/>
     </row>
     <row r="7" spans="1:13" ht="18.75">
       <c r="B7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="80"/>
+      <c r="D7" s="82"/>
       <c r="E7" s="18"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="83"/>
     </row>
     <row r="8" spans="1:13" ht="18.75">
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="72"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="93"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="84"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="86"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
-      <c r="B10" s="85"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="84"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="86"/>
     </row>
     <row r="11" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B11" s="86"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="88"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="90"/>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickBot="1">
       <c r="B13" s="6" t="s">
@@ -3396,26 +3531,24 @@
       <c r="C28" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="30" t="s">
-        <v>47</v>
-      </c>
+      <c r="D28" s="30"/>
       <c r="E28" s="41"/>
-      <c r="F28" s="89" t="s">
+      <c r="F28" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="G28" s="90"/>
+      <c r="G28" s="95"/>
       <c r="H28" s="31" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="19.5" thickBot="1">
-      <c r="B29" s="2"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="25"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="45"/>
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="40"/>
@@ -3444,26 +3577,32 @@
       <c r="C32" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="30" t="s">
-        <v>47</v>
-      </c>
+      <c r="D32" s="30"/>
       <c r="E32" s="41"/>
-      <c r="F32" s="89" t="s">
+      <c r="F32" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="G32" s="90"/>
+      <c r="G32" s="95"/>
       <c r="H32" s="31" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="19.5" thickBot="1">
-      <c r="B33" s="2"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="25"/>
+      <c r="B33" s="42">
+        <v>1</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" s="43"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="107" t="s">
+        <v>161</v>
+      </c>
+      <c r="G33" s="108"/>
+      <c r="H33" s="45" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="40"/>
@@ -3504,311 +3643,354 @@
       <c r="B37" s="46">
         <v>1</v>
       </c>
-      <c r="C37" s="65" t="s">
+      <c r="C37" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="66"/>
-      <c r="E37" s="67" t="s">
+      <c r="D37" s="71"/>
+      <c r="E37" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="F37" s="68"/>
-      <c r="G37" s="68"/>
-      <c r="H37" s="69"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="74"/>
     </row>
     <row r="38" spans="2:8" ht="18.75">
       <c r="B38" s="46">
         <v>2</v>
       </c>
-      <c r="C38" s="65" t="s">
+      <c r="C38" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="66"/>
-      <c r="E38" s="67" t="str">
+      <c r="D38" s="71"/>
+      <c r="E38" s="72" t="str">
         <f>C5</f>
         <v>ACSystem</v>
       </c>
-      <c r="F38" s="68"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="69"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="74"/>
     </row>
     <row r="39" spans="2:8" ht="18.75">
       <c r="B39" s="46">
         <v>3</v>
       </c>
-      <c r="C39" s="65" t="s">
+      <c r="C39" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="66"/>
-      <c r="E39" s="67" t="str">
+      <c r="D39" s="71"/>
+      <c r="E39" s="72" t="str">
         <f>C7</f>
         <v>attendance</v>
       </c>
-      <c r="F39" s="68"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="69"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="74"/>
     </row>
     <row r="40" spans="2:8" ht="18.75">
       <c r="B40" s="46">
         <v>4</v>
       </c>
-      <c r="C40" s="65" t="s">
+      <c r="C40" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="66"/>
-      <c r="E40" s="67" t="s">
+      <c r="D40" s="71"/>
+      <c r="E40" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="F40" s="68"/>
-      <c r="G40" s="68"/>
-      <c r="H40" s="69"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="74"/>
     </row>
     <row r="41" spans="2:8" ht="18.75">
       <c r="B41" s="46">
         <v>5</v>
       </c>
-      <c r="C41" s="65" t="s">
+      <c r="C41" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="66"/>
-      <c r="E41" s="67" t="s">
+      <c r="D41" s="71"/>
+      <c r="E41" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="F41" s="68"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="69"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="74"/>
     </row>
     <row r="42" spans="2:8" ht="18.75">
       <c r="B42" s="46">
         <v>6</v>
       </c>
-      <c r="C42" s="65" t="s">
+      <c r="C42" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="D42" s="66"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="68"/>
-      <c r="H42" s="69"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="74"/>
     </row>
     <row r="43" spans="2:8" ht="18.75">
       <c r="B43" s="46">
         <v>7</v>
       </c>
-      <c r="C43" s="65" t="s">
+      <c r="C43" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="66"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="68"/>
-      <c r="H43" s="69"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="73"/>
+      <c r="G43" s="73"/>
+      <c r="H43" s="74"/>
     </row>
     <row r="44" spans="2:8" ht="18.75">
       <c r="B44" s="46">
         <v>8</v>
       </c>
-      <c r="C44" s="65" t="s">
+      <c r="C44" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="D44" s="66"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="68"/>
-      <c r="H44" s="69"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="74"/>
     </row>
     <row r="45" spans="2:8" ht="18.75">
       <c r="B45" s="46">
         <v>9</v>
       </c>
-      <c r="C45" s="65" t="s">
+      <c r="C45" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="D45" s="66"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="68"/>
-      <c r="G45" s="68"/>
-      <c r="H45" s="69"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="73"/>
+      <c r="H45" s="74"/>
     </row>
     <row r="46" spans="2:8" ht="18.75">
       <c r="B46" s="46">
         <v>10</v>
       </c>
-      <c r="C46" s="65" t="s">
+      <c r="C46" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="D46" s="66"/>
-      <c r="E46" s="67" t="s">
+      <c r="D46" s="71"/>
+      <c r="E46" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="F46" s="68"/>
-      <c r="G46" s="68"/>
-      <c r="H46" s="69"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="74"/>
     </row>
     <row r="47" spans="2:8" ht="18.75">
       <c r="B47" s="46">
         <v>11</v>
       </c>
-      <c r="C47" s="65" t="s">
+      <c r="C47" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="66"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="69"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="73"/>
+      <c r="G47" s="73"/>
+      <c r="H47" s="74"/>
     </row>
     <row r="48" spans="2:8" ht="18.75">
       <c r="B48" s="46">
         <v>12</v>
       </c>
-      <c r="C48" s="65" t="s">
+      <c r="C48" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="66"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="68"/>
-      <c r="G48" s="68"/>
-      <c r="H48" s="69"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="73"/>
+      <c r="H48" s="74"/>
     </row>
     <row r="49" spans="2:8" ht="18.75">
       <c r="B49" s="46">
         <v>13</v>
       </c>
-      <c r="C49" s="65" t="s">
+      <c r="C49" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="D49" s="66"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="69"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="72"/>
+      <c r="F49" s="73"/>
+      <c r="G49" s="73"/>
+      <c r="H49" s="74"/>
     </row>
     <row r="50" spans="2:8" ht="18.75">
       <c r="B50" s="46">
         <v>14</v>
       </c>
-      <c r="C50" s="65" t="s">
+      <c r="C50" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="D50" s="66"/>
-      <c r="E50" s="67" t="s">
+      <c r="D50" s="71"/>
+      <c r="E50" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="F50" s="68"/>
-      <c r="G50" s="68"/>
-      <c r="H50" s="69"/>
+      <c r="F50" s="73"/>
+      <c r="G50" s="73"/>
+      <c r="H50" s="74"/>
     </row>
     <row r="51" spans="2:8" ht="18.75">
       <c r="B51" s="46">
         <v>15</v>
       </c>
-      <c r="C51" s="65" t="s">
+      <c r="C51" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="D51" s="66"/>
-      <c r="E51" s="73" t="s">
+      <c r="D51" s="71"/>
+      <c r="E51" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="F51" s="74"/>
-      <c r="G51" s="74"/>
-      <c r="H51" s="75"/>
+      <c r="F51" s="76"/>
+      <c r="G51" s="76"/>
+      <c r="H51" s="77"/>
     </row>
     <row r="52" spans="2:8" ht="18.75">
       <c r="B52" s="46">
         <v>16</v>
       </c>
-      <c r="C52" s="65" t="s">
+      <c r="C52" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="D52" s="66"/>
-      <c r="E52" s="67" t="s">
+      <c r="D52" s="71"/>
+      <c r="E52" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="F52" s="68"/>
-      <c r="G52" s="68"/>
-      <c r="H52" s="69"/>
+      <c r="F52" s="73"/>
+      <c r="G52" s="73"/>
+      <c r="H52" s="74"/>
     </row>
     <row r="53" spans="2:8" ht="18.75">
       <c r="B53" s="46">
         <v>17</v>
       </c>
-      <c r="C53" s="65" t="s">
+      <c r="C53" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="66"/>
-      <c r="E53" s="67" t="s">
+      <c r="D53" s="71"/>
+      <c r="E53" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="F53" s="68"/>
-      <c r="G53" s="68"/>
-      <c r="H53" s="69"/>
+      <c r="F53" s="73"/>
+      <c r="G53" s="73"/>
+      <c r="H53" s="74"/>
     </row>
     <row r="54" spans="2:8" ht="18.75">
       <c r="B54" s="46">
         <v>18</v>
       </c>
-      <c r="C54" s="65" t="s">
+      <c r="C54" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="D54" s="66"/>
-      <c r="E54" s="67" t="s">
+      <c r="D54" s="71"/>
+      <c r="E54" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="F54" s="68"/>
-      <c r="G54" s="68"/>
-      <c r="H54" s="69"/>
+      <c r="F54" s="73"/>
+      <c r="G54" s="73"/>
+      <c r="H54" s="74"/>
     </row>
     <row r="55" spans="2:8" ht="18.75">
       <c r="B55" s="46">
         <v>19</v>
       </c>
-      <c r="C55" s="65" t="s">
+      <c r="C55" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="D55" s="66"/>
-      <c r="E55" s="67" t="s">
+      <c r="D55" s="71"/>
+      <c r="E55" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="F55" s="68"/>
-      <c r="G55" s="68"/>
-      <c r="H55" s="69"/>
+      <c r="F55" s="73"/>
+      <c r="G55" s="73"/>
+      <c r="H55" s="74"/>
     </row>
     <row r="56" spans="2:8" ht="18.75">
       <c r="B56" s="46">
         <v>20</v>
       </c>
-      <c r="C56" s="65" t="s">
+      <c r="C56" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D56" s="66"/>
-      <c r="E56" s="67" t="s">
+      <c r="D56" s="71"/>
+      <c r="E56" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="F56" s="68"/>
-      <c r="G56" s="68"/>
-      <c r="H56" s="69"/>
+      <c r="F56" s="73"/>
+      <c r="G56" s="73"/>
+      <c r="H56" s="74"/>
     </row>
     <row r="57" spans="2:8" ht="19.5" thickBot="1">
       <c r="B57" s="39">
         <v>21</v>
       </c>
-      <c r="C57" s="91" t="s">
+      <c r="C57" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="D57" s="92"/>
-      <c r="E57" s="93" t="s">
+      <c r="D57" s="66"/>
+      <c r="E57" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="F57" s="94"/>
-      <c r="G57" s="94"/>
-      <c r="H57" s="95"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="68"/>
+      <c r="H57" s="69"/>
     </row>
     <row r="65" spans="10:11">
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="59">
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:H39"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="F32:G32"/>
@@ -3824,16 +4006,1000 @@
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="B8:G8"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="F29:G29"/>
+  </mergeCells>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F67A314-C734-4D7B-9527-25C2421D6718}">
+  <dimension ref="A1:O76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35:G35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="16.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="25.5" thickBot="1">
+      <c r="A1" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+    </row>
+    <row r="2" spans="1:13" ht="17.25" thickTop="1" thickBot="1"/>
+    <row r="3" spans="1:13" ht="18.75">
+      <c r="B3" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="79"/>
+      <c r="E3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="80"/>
+    </row>
+    <row r="4" spans="1:13" ht="18.75">
+      <c r="B4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="81"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="96">
+        <v>45265</v>
+      </c>
+      <c r="G4" s="97"/>
+    </row>
+    <row r="5" spans="1:13" ht="18.75">
+      <c r="B5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="82"/>
+      <c r="E5" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="96">
+        <v>45265</v>
+      </c>
+      <c r="G5" s="97"/>
+    </row>
+    <row r="6" spans="1:13" ht="18.75">
+      <c r="B6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="81" t="str">
+        <f>テーブル一覧表!D7</f>
+        <v>メール管理テーブル</v>
+      </c>
+      <c r="D6" s="82"/>
+      <c r="E6" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="81"/>
+      <c r="G6" s="83"/>
+    </row>
+    <row r="7" spans="1:13" ht="18.75">
+      <c r="B7" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="82"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="83"/>
+    </row>
+    <row r="8" spans="1:13" ht="18.75">
+      <c r="B8" s="91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="93"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" customHeight="1">
+      <c r="B9" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="86"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1">
+      <c r="B10" s="87"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="86"/>
+    </row>
+    <row r="11" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
+      <c r="B11" s="88"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="90"/>
+    </row>
+    <row r="12" spans="1:13" ht="16.5" customHeight="1">
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+    </row>
+    <row r="13" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
+      <c r="B13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" ht="16.5" customHeight="1">
+      <c r="B14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="16.5" customHeight="1">
+      <c r="B15" s="15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="1:13" ht="16.5" customHeight="1">
+      <c r="B16" s="15">
+        <v>2</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B17" s="15">
+        <v>3</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B18" s="15">
+        <v>4</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B19" s="15">
+        <v>5</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B20" s="15">
+        <v>6</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="B21" s="26">
+        <v>7</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="51"/>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" thickBot="1">
+      <c r="B23" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+    </row>
+    <row r="24" spans="1:9" ht="18.75">
+      <c r="B24" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24"/>
+    </row>
+    <row r="25" spans="1:9" ht="18.75">
+      <c r="B25" s="47">
+        <v>1</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="H25" s="48"/>
+      <c r="I25"/>
+    </row>
+    <row r="26" spans="1:9" ht="18.75">
+      <c r="B26" s="47">
+        <v>2</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="H26" s="48"/>
+      <c r="I26"/>
+    </row>
+    <row r="27" spans="1:9" ht="19.5" thickBot="1">
+      <c r="B27" s="42">
+        <v>3</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="G27" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="H27" s="45"/>
+      <c r="I27"/>
+    </row>
+    <row r="28" spans="1:9" ht="18.75">
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+    </row>
+    <row r="29" spans="1:9" ht="16.5" thickBot="1">
+      <c r="B29" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+    </row>
+    <row r="30" spans="1:9" ht="18.75">
+      <c r="B30" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="30"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="94" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" s="95"/>
+      <c r="H30" s="31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="19.5" thickBot="1">
+      <c r="B31" s="2"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="99"/>
+      <c r="H31" s="25"/>
+      <c r="I31"/>
+    </row>
+    <row r="32" spans="1:9" ht="18.75">
+      <c r="A32"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+    </row>
+    <row r="33" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A33"/>
+      <c r="B33" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+    </row>
+    <row r="34" spans="1:9" ht="18.75">
+      <c r="A34"/>
+      <c r="B34" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="30"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="G34" s="95"/>
+      <c r="H34" s="31" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="18.75">
+      <c r="A35"/>
+      <c r="B35" s="47">
+        <v>1</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="105" t="s">
+        <v>161</v>
+      </c>
+      <c r="G35" s="106"/>
+      <c r="H35" s="100" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="19.5" thickBot="1">
+      <c r="B36" s="42">
+        <v>2</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" s="43"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="107" t="s">
+        <v>161</v>
+      </c>
+      <c r="G36" s="108"/>
+      <c r="H36" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="I36"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="B37" s="40"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+    </row>
+    <row r="38" spans="1:9" ht="16.5" thickBot="1">
+      <c r="B38" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+    </row>
+    <row r="39" spans="1:9" ht="19.5" customHeight="1">
+      <c r="B39" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="41"/>
+      <c r="E39" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="38"/>
+    </row>
+    <row r="40" spans="1:9" ht="18.75">
+      <c r="B40" s="46">
+        <v>1</v>
+      </c>
+      <c r="C40" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="71"/>
+      <c r="E40" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="F40" s="73"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="74"/>
+    </row>
+    <row r="41" spans="1:9" ht="18.75">
+      <c r="B41" s="46">
+        <v>2</v>
+      </c>
+      <c r="C41" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="71"/>
+      <c r="E41" s="72" t="str">
+        <f>C5</f>
+        <v>ACSystem</v>
+      </c>
+      <c r="F41" s="73"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="74"/>
+    </row>
+    <row r="42" spans="1:9" ht="18.75">
+      <c r="B42" s="46">
+        <v>3</v>
+      </c>
+      <c r="C42" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="71"/>
+      <c r="E42" s="72" t="str">
+        <f>C7</f>
+        <v>mailbox</v>
+      </c>
+      <c r="F42" s="73"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="74"/>
+    </row>
+    <row r="43" spans="1:9" ht="18.75">
+      <c r="B43" s="46">
+        <v>4</v>
+      </c>
+      <c r="C43" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="71"/>
+      <c r="E43" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="F43" s="73"/>
+      <c r="G43" s="73"/>
+      <c r="H43" s="74"/>
+    </row>
+    <row r="44" spans="1:9" ht="18.75">
+      <c r="B44" s="46">
+        <v>5</v>
+      </c>
+      <c r="C44" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="71"/>
+      <c r="E44" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="F44" s="73"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="74"/>
+    </row>
+    <row r="45" spans="1:9" ht="18.75">
+      <c r="B45" s="46">
+        <v>6</v>
+      </c>
+      <c r="C45" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="71"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="73"/>
+      <c r="H45" s="74"/>
+    </row>
+    <row r="46" spans="1:9" ht="18.75">
+      <c r="B46" s="46">
+        <v>7</v>
+      </c>
+      <c r="C46" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="71"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="74"/>
+    </row>
+    <row r="47" spans="1:9" ht="18.75">
+      <c r="B47" s="46">
+        <v>8</v>
+      </c>
+      <c r="C47" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" s="71"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="73"/>
+      <c r="G47" s="73"/>
+      <c r="H47" s="74"/>
+    </row>
+    <row r="48" spans="1:9" ht="18.75">
+      <c r="B48" s="46">
+        <v>9</v>
+      </c>
+      <c r="C48" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" s="71"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="73"/>
+      <c r="H48" s="74"/>
+    </row>
+    <row r="49" spans="2:13" ht="18.75">
+      <c r="B49" s="46">
+        <v>10</v>
+      </c>
+      <c r="C49" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" s="71"/>
+      <c r="E49" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="F49" s="73"/>
+      <c r="G49" s="73"/>
+      <c r="H49" s="74"/>
+    </row>
+    <row r="50" spans="2:13" ht="18.75">
+      <c r="B50" s="46">
+        <v>11</v>
+      </c>
+      <c r="C50" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="71"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="73"/>
+      <c r="G50" s="73"/>
+      <c r="H50" s="74"/>
+    </row>
+    <row r="51" spans="2:13" ht="18.75">
+      <c r="B51" s="46">
+        <v>12</v>
+      </c>
+      <c r="C51" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" s="71"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="73"/>
+      <c r="G51" s="73"/>
+      <c r="H51" s="74"/>
+    </row>
+    <row r="52" spans="2:13" ht="18.75">
+      <c r="B52" s="46">
+        <v>13</v>
+      </c>
+      <c r="C52" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52" s="71"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="73"/>
+      <c r="G52" s="73"/>
+      <c r="H52" s="74"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+    </row>
+    <row r="53" spans="2:13" ht="18.75">
+      <c r="B53" s="46">
+        <v>14</v>
+      </c>
+      <c r="C53" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="71"/>
+      <c r="E53" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" s="73"/>
+      <c r="G53" s="73"/>
+      <c r="H53" s="74"/>
+    </row>
+    <row r="54" spans="2:13" ht="18.75">
+      <c r="B54" s="46">
+        <v>15</v>
+      </c>
+      <c r="C54" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" s="71"/>
+      <c r="E54" s="75" t="s">
+        <v>128</v>
+      </c>
+      <c r="F54" s="76"/>
+      <c r="G54" s="76"/>
+      <c r="H54" s="77"/>
+    </row>
+    <row r="55" spans="2:13" ht="18.75">
+      <c r="B55" s="46">
+        <v>16</v>
+      </c>
+      <c r="C55" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" s="71"/>
+      <c r="E55" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" s="73"/>
+      <c r="G55" s="73"/>
+      <c r="H55" s="74"/>
+    </row>
+    <row r="56" spans="2:13" ht="18.75">
+      <c r="B56" s="46">
+        <v>17</v>
+      </c>
+      <c r="C56" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" s="71"/>
+      <c r="E56" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" s="73"/>
+      <c r="G56" s="73"/>
+      <c r="H56" s="74"/>
+    </row>
+    <row r="57" spans="2:13" ht="18.75">
+      <c r="B57" s="46">
+        <v>18</v>
+      </c>
+      <c r="C57" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" s="71"/>
+      <c r="E57" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" s="73"/>
+      <c r="G57" s="73"/>
+      <c r="H57" s="74"/>
+    </row>
+    <row r="58" spans="2:13" ht="18.75">
+      <c r="B58" s="46">
+        <v>19</v>
+      </c>
+      <c r="C58" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="71"/>
+      <c r="E58" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" s="73"/>
+      <c r="G58" s="73"/>
+      <c r="H58" s="74"/>
+    </row>
+    <row r="59" spans="2:13" ht="18.75">
+      <c r="B59" s="46">
+        <v>20</v>
+      </c>
+      <c r="C59" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" s="71"/>
+      <c r="E59" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59" s="73"/>
+      <c r="G59" s="73"/>
+      <c r="H59" s="74"/>
+    </row>
+    <row r="60" spans="2:13" ht="19.5" thickBot="1">
+      <c r="B60" s="39">
+        <v>21</v>
+      </c>
+      <c r="C60" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="66"/>
+      <c r="E60" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" s="68"/>
+      <c r="G60" s="68"/>
+      <c r="H60" s="69"/>
+    </row>
+    <row r="61" spans="2:13">
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+    </row>
+    <row r="62" spans="2:13">
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+    </row>
+    <row r="63" spans="2:13">
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+    </row>
+    <row r="64" spans="2:13">
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+    </row>
+    <row r="65" spans="2:15">
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+    </row>
+    <row r="76" spans="2:15">
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="60">
+    <mergeCell ref="B9:G11"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F34:G34"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="E40:H40"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="E41:H41"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F35:G35"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="E42:H42"/>
     <mergeCell ref="C43:D43"/>
@@ -3864,22 +5030,23 @@
     <mergeCell ref="E55:H55"/>
     <mergeCell ref="C56:D56"/>
     <mergeCell ref="E56:H56"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:H60"/>
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="E57:H57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:H59"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F67A314-C734-4D7B-9527-25C2421D6718}">
-  <dimension ref="A1:O75"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF39F7E-0462-4989-AF49-BA21E78DFD71}">
+  <dimension ref="A1:O70"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection sqref="A1:M1"/>
@@ -3899,45 +5066,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="25.5" thickBot="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
     </row>
     <row r="2" spans="1:13" ht="17.25" thickTop="1" thickBot="1"/>
     <row r="3" spans="1:13" ht="18.75">
       <c r="B3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="77"/>
+      <c r="D3" s="79"/>
       <c r="E3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="76" t="s">
+      <c r="F3" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="78"/>
+      <c r="G3" s="80"/>
     </row>
     <row r="4" spans="1:13" ht="18.75">
       <c r="B4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="20" t="s">
         <v>18</v>
       </c>
@@ -3950,10 +5117,10 @@
       <c r="B5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="80"/>
+      <c r="D5" s="82"/>
       <c r="E5" s="20" t="s">
         <v>20</v>
       </c>
@@ -3966,64 +5133,64 @@
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="79" t="str">
-        <f>テーブル一覧表!D7</f>
-        <v>メール管理テーブル</v>
-      </c>
-      <c r="D6" s="80"/>
+      <c r="C6" s="81" t="str">
+        <f>テーブル一覧表!D8</f>
+        <v>お知らせ管理テーブル</v>
+      </c>
+      <c r="D6" s="82"/>
       <c r="E6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="79"/>
-      <c r="G6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="83"/>
     </row>
     <row r="7" spans="1:13" ht="18.75">
       <c r="B7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="79" t="s">
-        <v>125</v>
-      </c>
-      <c r="D7" s="80"/>
+      <c r="C7" s="81" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="82"/>
       <c r="E7" s="18"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="83"/>
     </row>
     <row r="8" spans="1:13" ht="18.75">
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="72"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="93"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="84"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="86"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
-      <c r="B10" s="85"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="84"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="86"/>
     </row>
     <row r="11" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B11" s="86"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="88"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="90"/>
     </row>
     <row r="12" spans="1:13" ht="16.5" customHeight="1">
       <c r="B12" s="49"/>
@@ -4094,19 +5261,19 @@
         <v>2</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="12"/>
@@ -4116,264 +5283,216 @@
         <v>3</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="12"/>
     </row>
-    <row r="18" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B18" s="15">
+    <row r="18" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="B18" s="26">
         <v>4</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="12"/>
-    </row>
-    <row r="19" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B19" s="15">
-        <v>5</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="F19" s="10" t="s">
+      <c r="C18" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="G19" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="12"/>
-    </row>
-    <row r="20" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B20" s="15">
-        <v>6</v>
-      </c>
-      <c r="C20" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="12"/>
-    </row>
-    <row r="21" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B21" s="26">
-        <v>7</v>
-      </c>
-      <c r="C21" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="51"/>
-    </row>
-    <row r="23" spans="1:9" ht="16.5" thickBot="1">
-      <c r="B23" s="27" t="s">
+      <c r="G18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="51"/>
+    </row>
+    <row r="20" spans="1:9" ht="16.5" thickBot="1">
+      <c r="B20" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-    </row>
-    <row r="24" spans="1:9" ht="18.75">
-      <c r="B24" s="29" t="s">
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+    </row>
+    <row r="21" spans="1:9" ht="18.75">
+      <c r="B21" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C21" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D21" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="E24" s="41" t="s">
+      <c r="E21" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="F24" s="30" t="s">
+      <c r="F21" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="G24" s="30" t="s">
+      <c r="G21" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="H24" s="31" t="s">
+      <c r="H21" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="I24"/>
+      <c r="I21"/>
+    </row>
+    <row r="22" spans="1:9" ht="19.5" thickBot="1">
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="H22" s="25"/>
+      <c r="I22"/>
+    </row>
+    <row r="23" spans="1:9" ht="18.75">
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+    </row>
+    <row r="24" spans="1:9" ht="16.5" thickBot="1">
+      <c r="B24" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
     </row>
     <row r="25" spans="1:9" ht="18.75">
-      <c r="B25" s="47">
-        <v>1</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="E25" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="F25" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="G25" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="H25" s="48"/>
-      <c r="I25"/>
-    </row>
-    <row r="26" spans="1:9" ht="18.75">
-      <c r="B26" s="47">
+      <c r="B25" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="D26" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="E26" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="F26" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="G26" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="H26" s="48"/>
+      <c r="C25" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="41"/>
+      <c r="F25" s="94" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" s="95"/>
+      <c r="H25" s="31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="19.5" thickBot="1">
+      <c r="B26" s="2"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="25"/>
       <c r="I26"/>
     </row>
-    <row r="27" spans="1:9" ht="19.5" thickBot="1">
-      <c r="B27" s="42">
-        <v>3</v>
-      </c>
-      <c r="C27" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="D27" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="E27" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="F27" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="G27" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="H27" s="45"/>
-      <c r="I27"/>
-    </row>
-    <row r="28" spans="1:9" ht="18.75">
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-    </row>
-    <row r="29" spans="1:9" ht="16.5" thickBot="1">
-      <c r="B29" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-    </row>
-    <row r="30" spans="1:9" ht="18.75">
-      <c r="B30" s="29" t="s">
+    <row r="27" spans="1:9" ht="18.75">
+      <c r="A27"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+    </row>
+    <row r="28" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A28"/>
+      <c r="B28" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+    </row>
+    <row r="29" spans="1:9" ht="18.75">
+      <c r="A29"/>
+      <c r="B29" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C29" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D29" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="41"/>
-      <c r="F30" s="89" t="s">
-        <v>51</v>
-      </c>
-      <c r="G30" s="90"/>
-      <c r="H30" s="31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="19.5" thickBot="1">
-      <c r="B31" s="2"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="25"/>
-      <c r="I31"/>
-    </row>
-    <row r="32" spans="1:9" ht="18.75">
-      <c r="A32"/>
-      <c r="B32" s="40"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="G29" s="95"/>
+      <c r="H29" s="31" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="19.5" thickBot="1">
+      <c r="B30" s="2"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="25"/>
+      <c r="I30"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="B31" s="40"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+    </row>
+    <row r="32" spans="1:9" ht="16.5" thickBot="1">
+      <c r="B32" s="27" t="s">
+        <v>46</v>
+      </c>
       <c r="C32" s="28"/>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
@@ -4381,306 +5500,319 @@
       <c r="G32" s="28"/>
       <c r="H32" s="28"/>
     </row>
-    <row r="33" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A33"/>
-      <c r="B33" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-    </row>
-    <row r="34" spans="1:9" ht="18.75">
-      <c r="A34"/>
-      <c r="B34" s="29" t="s">
+    <row r="33" spans="2:13" ht="19.5" customHeight="1">
+      <c r="B33" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="E34" s="41"/>
-      <c r="F34" s="89" t="s">
-        <v>105</v>
-      </c>
-      <c r="G34" s="90"/>
-      <c r="H34" s="31" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="19.5" thickBot="1">
-      <c r="B35" s="2"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="25"/>
-      <c r="I35"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="B36" s="40"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-    </row>
-    <row r="37" spans="1:9" ht="16.5" thickBot="1">
-      <c r="B37" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-    </row>
-    <row r="38" spans="1:9" ht="19.5" customHeight="1">
-      <c r="B38" s="29" t="s">
+      <c r="C33" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="41"/>
+      <c r="E33" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="38"/>
+    </row>
+    <row r="34" spans="2:13" ht="18.75">
+      <c r="B34" s="46">
+        <v>1</v>
+      </c>
+      <c r="C34" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="71"/>
+      <c r="E34" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="74"/>
+    </row>
+    <row r="35" spans="2:13" ht="18.75">
+      <c r="B35" s="46">
         <v>2</v>
       </c>
-      <c r="C38" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D38" s="41"/>
-      <c r="E38" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="38"/>
-    </row>
-    <row r="39" spans="1:9" ht="18.75">
-      <c r="B39" s="46">
-        <v>1</v>
-      </c>
-      <c r="C39" s="65" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" s="66"/>
-      <c r="E39" s="67" t="s">
-        <v>107</v>
-      </c>
-      <c r="F39" s="68"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="69"/>
-    </row>
-    <row r="40" spans="1:9" ht="18.75">
-      <c r="B40" s="46">
-        <v>2</v>
-      </c>
-      <c r="C40" s="65" t="s">
+      <c r="C35" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="66"/>
-      <c r="E40" s="67" t="str">
+      <c r="D35" s="71"/>
+      <c r="E35" s="72" t="str">
         <f>C5</f>
         <v>ACSystem</v>
       </c>
-      <c r="F40" s="68"/>
-      <c r="G40" s="68"/>
-      <c r="H40" s="69"/>
-    </row>
-    <row r="41" spans="1:9" ht="18.75">
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="74"/>
+    </row>
+    <row r="36" spans="2:13" ht="18.75">
+      <c r="B36" s="46">
+        <v>3</v>
+      </c>
+      <c r="C36" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="71"/>
+      <c r="E36" s="72" t="str">
+        <f>C7</f>
+        <v>notifications</v>
+      </c>
+      <c r="F36" s="73"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="74"/>
+    </row>
+    <row r="37" spans="2:13" ht="18.75">
+      <c r="B37" s="46">
+        <v>4</v>
+      </c>
+      <c r="C37" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="71"/>
+      <c r="E37" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="74"/>
+    </row>
+    <row r="38" spans="2:13" ht="18.75">
+      <c r="B38" s="46">
+        <v>5</v>
+      </c>
+      <c r="C38" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="71"/>
+      <c r="E38" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="F38" s="73"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="74"/>
+    </row>
+    <row r="39" spans="2:13" ht="18.75">
+      <c r="B39" s="46">
+        <v>6</v>
+      </c>
+      <c r="C39" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="71"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="74"/>
+    </row>
+    <row r="40" spans="2:13" ht="18.75">
+      <c r="B40" s="46">
+        <v>7</v>
+      </c>
+      <c r="C40" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="71"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="74"/>
+    </row>
+    <row r="41" spans="2:13" ht="18.75">
       <c r="B41" s="46">
-        <v>3</v>
-      </c>
-      <c r="C41" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" s="66"/>
-      <c r="E41" s="67" t="str">
-        <f>C7</f>
-        <v>mailbox</v>
-      </c>
-      <c r="F41" s="68"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="69"/>
-    </row>
-    <row r="42" spans="1:9" ht="18.75">
+        <v>8</v>
+      </c>
+      <c r="C41" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="71"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="74"/>
+    </row>
+    <row r="42" spans="2:13" ht="18.75">
       <c r="B42" s="46">
-        <v>4</v>
-      </c>
-      <c r="C42" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="D42" s="66"/>
-      <c r="E42" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="F42" s="68"/>
-      <c r="G42" s="68"/>
-      <c r="H42" s="69"/>
-    </row>
-    <row r="43" spans="1:9" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="C42" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="71"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="74"/>
+    </row>
+    <row r="43" spans="2:13" ht="18.75">
       <c r="B43" s="46">
-        <v>5</v>
-      </c>
-      <c r="C43" s="65" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" s="66"/>
-      <c r="E43" s="67" t="s">
-        <v>109</v>
-      </c>
-      <c r="F43" s="68"/>
-      <c r="G43" s="68"/>
-      <c r="H43" s="69"/>
-    </row>
-    <row r="44" spans="1:9" ht="18.75">
+        <v>10</v>
+      </c>
+      <c r="C43" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="71"/>
+      <c r="E43" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="F43" s="73"/>
+      <c r="G43" s="73"/>
+      <c r="H43" s="74"/>
+    </row>
+    <row r="44" spans="2:13" ht="18.75">
       <c r="B44" s="46">
-        <v>6</v>
-      </c>
-      <c r="C44" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="D44" s="66"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="68"/>
-      <c r="H44" s="69"/>
-    </row>
-    <row r="45" spans="1:9" ht="18.75">
+        <v>11</v>
+      </c>
+      <c r="C44" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="71"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="74"/>
+    </row>
+    <row r="45" spans="2:13" ht="18.75">
       <c r="B45" s="46">
-        <v>7</v>
-      </c>
-      <c r="C45" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="D45" s="66"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="68"/>
-      <c r="G45" s="68"/>
-      <c r="H45" s="69"/>
-    </row>
-    <row r="46" spans="1:9" ht="18.75">
+        <v>12</v>
+      </c>
+      <c r="C45" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="71"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="73"/>
+      <c r="H45" s="74"/>
+    </row>
+    <row r="46" spans="2:13" ht="18.75">
       <c r="B46" s="46">
-        <v>8</v>
-      </c>
-      <c r="C46" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="D46" s="66"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="68"/>
-      <c r="H46" s="69"/>
-    </row>
-    <row r="47" spans="1:9" ht="18.75">
+        <v>13</v>
+      </c>
+      <c r="C46" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" s="71"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="74"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+    </row>
+    <row r="47" spans="2:13" ht="18.75">
       <c r="B47" s="46">
-        <v>9</v>
-      </c>
-      <c r="C47" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="D47" s="66"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="69"/>
-    </row>
-    <row r="48" spans="1:9" ht="18.75">
+        <v>14</v>
+      </c>
+      <c r="C47" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="71"/>
+      <c r="E47" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" s="73"/>
+      <c r="G47" s="73"/>
+      <c r="H47" s="74"/>
+    </row>
+    <row r="48" spans="2:13" ht="18.75">
       <c r="B48" s="46">
-        <v>10</v>
-      </c>
-      <c r="C48" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="D48" s="66"/>
-      <c r="E48" s="67" t="s">
-        <v>111</v>
-      </c>
-      <c r="F48" s="68"/>
-      <c r="G48" s="68"/>
-      <c r="H48" s="69"/>
-    </row>
-    <row r="49" spans="2:13" ht="18.75">
+        <v>15</v>
+      </c>
+      <c r="C48" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="71"/>
+      <c r="E48" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="F48" s="76"/>
+      <c r="G48" s="76"/>
+      <c r="H48" s="77"/>
+    </row>
+    <row r="49" spans="2:8" ht="18.75">
       <c r="B49" s="46">
-        <v>11</v>
-      </c>
-      <c r="C49" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="D49" s="66"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="69"/>
-    </row>
-    <row r="50" spans="2:13" ht="18.75">
+        <v>16</v>
+      </c>
+      <c r="C49" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" s="71"/>
+      <c r="E49" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="F49" s="73"/>
+      <c r="G49" s="73"/>
+      <c r="H49" s="74"/>
+    </row>
+    <row r="50" spans="2:8" ht="18.75">
       <c r="B50" s="46">
-        <v>12</v>
-      </c>
-      <c r="C50" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="D50" s="66"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="68"/>
-      <c r="G50" s="68"/>
-      <c r="H50" s="69"/>
-    </row>
-    <row r="51" spans="2:13" ht="18.75">
+        <v>17</v>
+      </c>
+      <c r="C50" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" s="71"/>
+      <c r="E50" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" s="73"/>
+      <c r="G50" s="73"/>
+      <c r="H50" s="74"/>
+    </row>
+    <row r="51" spans="2:8" ht="18.75">
       <c r="B51" s="46">
-        <v>13</v>
-      </c>
-      <c r="C51" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="D51" s="66"/>
-      <c r="E51" s="67"/>
-      <c r="F51" s="68"/>
-      <c r="G51" s="68"/>
-      <c r="H51" s="69"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-    </row>
-    <row r="52" spans="2:13" ht="18.75">
+        <v>18</v>
+      </c>
+      <c r="C51" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" s="71"/>
+      <c r="E51" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="F51" s="73"/>
+      <c r="G51" s="73"/>
+      <c r="H51" s="74"/>
+    </row>
+    <row r="52" spans="2:8" ht="18.75">
       <c r="B52" s="46">
-        <v>14</v>
-      </c>
-      <c r="C52" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="D52" s="66"/>
-      <c r="E52" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="71"/>
+      <c r="E52" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="F52" s="68"/>
-      <c r="G52" s="68"/>
-      <c r="H52" s="69"/>
-    </row>
-    <row r="53" spans="2:13" ht="18.75">
+      <c r="F52" s="73"/>
+      <c r="G52" s="73"/>
+      <c r="H52" s="74"/>
+    </row>
+    <row r="53" spans="2:8" ht="18.75">
       <c r="B53" s="46">
-        <v>15</v>
-      </c>
-      <c r="C53" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="D53" s="66"/>
-      <c r="E53" s="73" t="s">
-        <v>128</v>
-      </c>
-      <c r="F53" s="74"/>
-      <c r="G53" s="74"/>
-      <c r="H53" s="75"/>
-    </row>
-    <row r="54" spans="2:13" ht="18.75">
-      <c r="B54" s="46">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="C53" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53" s="71"/>
+      <c r="E53" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" s="73"/>
+      <c r="G53" s="73"/>
+      <c r="H53" s="74"/>
+    </row>
+    <row r="54" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B54" s="39">
+        <v>21</v>
       </c>
       <c r="C54" s="65" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D54" s="66"/>
       <c r="E54" s="67" t="s">
@@ -4690,175 +5822,100 @@
       <c r="G54" s="68"/>
       <c r="H54" s="69"/>
     </row>
-    <row r="55" spans="2:13" ht="18.75">
-      <c r="B55" s="46">
-        <v>17</v>
-      </c>
-      <c r="C55" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="D55" s="66"/>
-      <c r="E55" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="F55" s="68"/>
-      <c r="G55" s="68"/>
-      <c r="H55" s="69"/>
-    </row>
-    <row r="56" spans="2:13" ht="18.75">
-      <c r="B56" s="46">
-        <v>18</v>
-      </c>
-      <c r="C56" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="D56" s="66"/>
-      <c r="E56" s="67" t="s">
-        <v>110</v>
-      </c>
-      <c r="F56" s="68"/>
-      <c r="G56" s="68"/>
-      <c r="H56" s="69"/>
-    </row>
-    <row r="57" spans="2:13" ht="18.75">
-      <c r="B57" s="46">
-        <v>19</v>
-      </c>
-      <c r="C57" s="65" t="s">
-        <v>25</v>
-      </c>
-      <c r="D57" s="66"/>
-      <c r="E57" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="F57" s="68"/>
-      <c r="G57" s="68"/>
-      <c r="H57" s="69"/>
-    </row>
-    <row r="58" spans="2:13" ht="18.75">
-      <c r="B58" s="46">
-        <v>20</v>
-      </c>
-      <c r="C58" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="D58" s="66"/>
-      <c r="E58" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="F58" s="68"/>
-      <c r="G58" s="68"/>
-      <c r="H58" s="69"/>
-    </row>
-    <row r="59" spans="2:13" ht="19.5" thickBot="1">
-      <c r="B59" s="39">
-        <v>21</v>
-      </c>
-      <c r="C59" s="91" t="s">
-        <v>23</v>
-      </c>
-      <c r="D59" s="92"/>
-      <c r="E59" s="93" t="s">
-        <v>22</v>
-      </c>
-      <c r="F59" s="94"/>
-      <c r="G59" s="94"/>
-      <c r="H59" s="95"/>
-    </row>
-    <row r="60" spans="2:13">
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-    </row>
-    <row r="61" spans="2:13">
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-    </row>
-    <row r="62" spans="2:13">
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-    </row>
-    <row r="63" spans="2:13">
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-    </row>
-    <row r="64" spans="2:13">
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-    </row>
-    <row r="75" spans="10:15">
-      <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
-      <c r="M75" s="4"/>
-      <c r="N75" s="4"/>
-      <c r="O75" s="4"/>
+    <row r="55" spans="2:8">
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+    </row>
+    <row r="70" spans="10:15">
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:H57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:H58"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:H53"/>
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="E54:H54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:H50"/>
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="E52:H52"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:H53"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="E48:H48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:H49"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:H50"/>
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="E45:H45"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="E46:H46"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:H47"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="E42:H42"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="E43:H43"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:H44"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="E39:H39"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="E40:H40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:H35"/>
     <mergeCell ref="B9:G11"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="C3:D3"/>
@@ -4873,897 +5930,6 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="B8:G8"/>
   </mergeCells>
-  <phoneticPr fontId="7"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF39F7E-0462-4989-AF49-BA21E78DFD71}">
-  <dimension ref="A1:O70"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="16.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="25.5" thickBot="1">
-      <c r="A1" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-    </row>
-    <row r="2" spans="1:13" ht="17.25" thickTop="1" thickBot="1"/>
-    <row r="3" spans="1:13" ht="18.75">
-      <c r="B3" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="76" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="78"/>
-    </row>
-    <row r="4" spans="1:13" ht="18.75">
-      <c r="B4" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="96">
-        <v>45265</v>
-      </c>
-      <c r="G4" s="97"/>
-    </row>
-    <row r="5" spans="1:13" ht="18.75">
-      <c r="B5" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="80"/>
-      <c r="E5" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="96">
-        <v>45265</v>
-      </c>
-      <c r="G5" s="97"/>
-    </row>
-    <row r="6" spans="1:13" ht="18.75">
-      <c r="B6" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="79" t="str">
-        <f>テーブル一覧表!D8</f>
-        <v>お知らせ管理テーブル</v>
-      </c>
-      <c r="D6" s="80"/>
-      <c r="E6" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="79"/>
-      <c r="G6" s="81"/>
-    </row>
-    <row r="7" spans="1:13" ht="18.75">
-      <c r="B7" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="79" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" s="80"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="81"/>
-    </row>
-    <row r="8" spans="1:13" ht="18.75">
-      <c r="B8" s="70" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="72"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1">
-      <c r="B9" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="84"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1">
-      <c r="B10" s="85"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="84"/>
-    </row>
-    <row r="11" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B11" s="86"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="88"/>
-    </row>
-    <row r="12" spans="1:13" ht="16.5" customHeight="1">
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-    </row>
-    <row r="13" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:13" ht="16.5" customHeight="1">
-      <c r="B14" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="16.5" customHeight="1">
-      <c r="B15" s="15">
-        <v>1</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="I15" s="12"/>
-    </row>
-    <row r="16" spans="1:13" ht="16.5" customHeight="1">
-      <c r="B16" s="15">
-        <v>2</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="12"/>
-    </row>
-    <row r="17" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B17" s="15">
-        <v>3</v>
-      </c>
-      <c r="C17" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="12"/>
-    </row>
-    <row r="18" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B18" s="26">
-        <v>4</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="51"/>
-    </row>
-    <row r="20" spans="1:9" ht="16.5" thickBot="1">
-      <c r="B20" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-    </row>
-    <row r="21" spans="1:9" ht="18.75">
-      <c r="B21" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="E21" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="G21" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="H21" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="I21"/>
-    </row>
-    <row r="22" spans="1:9" ht="19.5" thickBot="1">
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="H22" s="25"/>
-      <c r="I22"/>
-    </row>
-    <row r="23" spans="1:9" ht="18.75">
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-    </row>
-    <row r="24" spans="1:9" ht="16.5" thickBot="1">
-      <c r="B24" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-    </row>
-    <row r="25" spans="1:9" ht="18.75">
-      <c r="B25" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="89" t="s">
-        <v>51</v>
-      </c>
-      <c r="G25" s="90"/>
-      <c r="H25" s="31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="19.5" thickBot="1">
-      <c r="B26" s="2"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="25"/>
-      <c r="I26"/>
-    </row>
-    <row r="27" spans="1:9" ht="18.75">
-      <c r="A27"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-    </row>
-    <row r="28" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A28"/>
-      <c r="B28" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-    </row>
-    <row r="29" spans="1:9" ht="18.75">
-      <c r="A29"/>
-      <c r="B29" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="41"/>
-      <c r="F29" s="89" t="s">
-        <v>105</v>
-      </c>
-      <c r="G29" s="90"/>
-      <c r="H29" s="31" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="19.5" thickBot="1">
-      <c r="B30" s="2"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="25"/>
-      <c r="I30"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="B31" s="40"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-    </row>
-    <row r="32" spans="1:9" ht="16.5" thickBot="1">
-      <c r="B32" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-    </row>
-    <row r="33" spans="2:13" ht="19.5" customHeight="1">
-      <c r="B33" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="41"/>
-      <c r="E33" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="38"/>
-    </row>
-    <row r="34" spans="2:13" ht="18.75">
-      <c r="B34" s="46">
-        <v>1</v>
-      </c>
-      <c r="C34" s="65" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" s="66"/>
-      <c r="E34" s="67" t="s">
-        <v>107</v>
-      </c>
-      <c r="F34" s="68"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="69"/>
-    </row>
-    <row r="35" spans="2:13" ht="18.75">
-      <c r="B35" s="46">
-        <v>2</v>
-      </c>
-      <c r="C35" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="66"/>
-      <c r="E35" s="67" t="str">
-        <f>C5</f>
-        <v>ACSystem</v>
-      </c>
-      <c r="F35" s="68"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="69"/>
-    </row>
-    <row r="36" spans="2:13" ht="18.75">
-      <c r="B36" s="46">
-        <v>3</v>
-      </c>
-      <c r="C36" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="66"/>
-      <c r="E36" s="67" t="str">
-        <f>C7</f>
-        <v>notifications</v>
-      </c>
-      <c r="F36" s="68"/>
-      <c r="G36" s="68"/>
-      <c r="H36" s="69"/>
-    </row>
-    <row r="37" spans="2:13" ht="18.75">
-      <c r="B37" s="46">
-        <v>4</v>
-      </c>
-      <c r="C37" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="66"/>
-      <c r="E37" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="F37" s="68"/>
-      <c r="G37" s="68"/>
-      <c r="H37" s="69"/>
-    </row>
-    <row r="38" spans="2:13" ht="18.75">
-      <c r="B38" s="46">
-        <v>5</v>
-      </c>
-      <c r="C38" s="65" t="s">
-        <v>39</v>
-      </c>
-      <c r="D38" s="66"/>
-      <c r="E38" s="67" t="s">
-        <v>109</v>
-      </c>
-      <c r="F38" s="68"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="69"/>
-    </row>
-    <row r="39" spans="2:13" ht="18.75">
-      <c r="B39" s="46">
-        <v>6</v>
-      </c>
-      <c r="C39" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39" s="66"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="69"/>
-    </row>
-    <row r="40" spans="2:13" ht="18.75">
-      <c r="B40" s="46">
-        <v>7</v>
-      </c>
-      <c r="C40" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="66"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="68"/>
-      <c r="H40" s="69"/>
-    </row>
-    <row r="41" spans="2:13" ht="18.75">
-      <c r="B41" s="46">
-        <v>8</v>
-      </c>
-      <c r="C41" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="D41" s="66"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="69"/>
-    </row>
-    <row r="42" spans="2:13" ht="18.75">
-      <c r="B42" s="46">
-        <v>9</v>
-      </c>
-      <c r="C42" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="D42" s="66"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="68"/>
-      <c r="H42" s="69"/>
-    </row>
-    <row r="43" spans="2:13" ht="18.75">
-      <c r="B43" s="46">
-        <v>10</v>
-      </c>
-      <c r="C43" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="D43" s="66"/>
-      <c r="E43" s="67" t="s">
-        <v>111</v>
-      </c>
-      <c r="F43" s="68"/>
-      <c r="G43" s="68"/>
-      <c r="H43" s="69"/>
-    </row>
-    <row r="44" spans="2:13" ht="18.75">
-      <c r="B44" s="46">
-        <v>11</v>
-      </c>
-      <c r="C44" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="D44" s="66"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="68"/>
-      <c r="H44" s="69"/>
-    </row>
-    <row r="45" spans="2:13" ht="18.75">
-      <c r="B45" s="46">
-        <v>12</v>
-      </c>
-      <c r="C45" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45" s="66"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="68"/>
-      <c r="G45" s="68"/>
-      <c r="H45" s="69"/>
-    </row>
-    <row r="46" spans="2:13" ht="18.75">
-      <c r="B46" s="46">
-        <v>13</v>
-      </c>
-      <c r="C46" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="D46" s="66"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="68"/>
-      <c r="H46" s="69"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-    </row>
-    <row r="47" spans="2:13" ht="18.75">
-      <c r="B47" s="46">
-        <v>14</v>
-      </c>
-      <c r="C47" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="66"/>
-      <c r="E47" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="F47" s="68"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="69"/>
-    </row>
-    <row r="48" spans="2:13" ht="18.75">
-      <c r="B48" s="46">
-        <v>15</v>
-      </c>
-      <c r="C48" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="D48" s="66"/>
-      <c r="E48" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="F48" s="74"/>
-      <c r="G48" s="74"/>
-      <c r="H48" s="75"/>
-    </row>
-    <row r="49" spans="2:8" ht="18.75">
-      <c r="B49" s="46">
-        <v>16</v>
-      </c>
-      <c r="C49" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="D49" s="66"/>
-      <c r="E49" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="69"/>
-    </row>
-    <row r="50" spans="2:8" ht="18.75">
-      <c r="B50" s="46">
-        <v>17</v>
-      </c>
-      <c r="C50" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="D50" s="66"/>
-      <c r="E50" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="F50" s="68"/>
-      <c r="G50" s="68"/>
-      <c r="H50" s="69"/>
-    </row>
-    <row r="51" spans="2:8" ht="18.75">
-      <c r="B51" s="46">
-        <v>18</v>
-      </c>
-      <c r="C51" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="D51" s="66"/>
-      <c r="E51" s="67" t="s">
-        <v>110</v>
-      </c>
-      <c r="F51" s="68"/>
-      <c r="G51" s="68"/>
-      <c r="H51" s="69"/>
-    </row>
-    <row r="52" spans="2:8" ht="18.75">
-      <c r="B52" s="46">
-        <v>19</v>
-      </c>
-      <c r="C52" s="65" t="s">
-        <v>25</v>
-      </c>
-      <c r="D52" s="66"/>
-      <c r="E52" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="F52" s="68"/>
-      <c r="G52" s="68"/>
-      <c r="H52" s="69"/>
-    </row>
-    <row r="53" spans="2:8" ht="18.75">
-      <c r="B53" s="46">
-        <v>20</v>
-      </c>
-      <c r="C53" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="D53" s="66"/>
-      <c r="E53" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="F53" s="68"/>
-      <c r="G53" s="68"/>
-      <c r="H53" s="69"/>
-    </row>
-    <row r="54" spans="2:8" ht="19.5" thickBot="1">
-      <c r="B54" s="39">
-        <v>21</v>
-      </c>
-      <c r="C54" s="91" t="s">
-        <v>23</v>
-      </c>
-      <c r="D54" s="92"/>
-      <c r="E54" s="93" t="s">
-        <v>22</v>
-      </c>
-      <c r="F54" s="94"/>
-      <c r="G54" s="94"/>
-      <c r="H54" s="95"/>
-    </row>
-    <row r="55" spans="2:8">
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-    </row>
-    <row r="56" spans="2:8">
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-    </row>
-    <row r="57" spans="2:8">
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-    </row>
-    <row r="58" spans="2:8">
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-    </row>
-    <row r="59" spans="2:8">
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-    </row>
-    <row r="70" spans="10:15">
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
-      <c r="N70" s="4"/>
-      <c r="O70" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="B9:G11"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:H53"/>
-  </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
